--- a/Datos_colonia.xlsx
+++ b/Datos_colonia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\IA\ia_dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roxy_\Documents\MCC\2022-1\Inteligencia Artificial\Proyecto\ia_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE45DC4-D898-4C6A-81D5-6C8E250E65D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A43171-2766-4761-AD75-BCE34DE21669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>remplaza tus datos aqui</t>
+    <t>Miramar</t>
+  </si>
+  <si>
+    <t>Lomas de Zapopan</t>
+  </si>
+  <si>
+    <t>Tabachines</t>
+  </si>
+  <si>
+    <t>Jardines Alcalde</t>
+  </si>
+  <si>
+    <t>San Juan de Dios</t>
+  </si>
+  <si>
+    <t>La Calma</t>
+  </si>
+  <si>
+    <t>Ladrón de Guevara</t>
+  </si>
+  <si>
+    <t>Ciudad Granja</t>
+  </si>
+  <si>
+    <t>Analco</t>
+  </si>
+  <si>
+    <t>Mirador San Isidro</t>
+  </si>
+  <si>
+    <t>Ciudad del Sol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,13 +100,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -345,20 +390,789 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44105</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44136</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44166</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44197</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44228</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44256</v>
+      </c>
+      <c r="I1" s="1">
+        <v>44287</v>
+      </c>
+      <c r="J1" s="1">
+        <v>44317</v>
+      </c>
+      <c r="K1" s="1">
+        <v>44348</v>
+      </c>
+      <c r="L1" s="1">
+        <v>44378</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44409</v>
+      </c>
+      <c r="N1" s="1">
+        <v>44440</v>
+      </c>
+      <c r="O1" s="1">
+        <v>44470</v>
+      </c>
+      <c r="P1" s="1">
+        <v>44501</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>44531</v>
+      </c>
+      <c r="R1" s="1">
+        <v>44562</v>
+      </c>
+      <c r="S1" s="1">
+        <v>44593</v>
+      </c>
+      <c r="T1" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2">
+        <v>1450000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1570000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1570000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1620000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1660000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1660000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1570000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1650000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1670000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1670000</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1720000</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1720000</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1720000</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1720000</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1770000</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1770000</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1770000</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1820000</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1820000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1860000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1860000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1870000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2020000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1770000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1770000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1770000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1860000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1860000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1870000</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1910000</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1870000</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2130000</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2160000</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2190000</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2380000</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2460000</v>
+      </c>
+      <c r="S3" s="2">
+        <v>2580000</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2610000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2710000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2710000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2710000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2710000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2710000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2710000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2710000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2710000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2710000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2660000</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2650000</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2650000</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2610000</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2580000</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2560000</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2350000</v>
+      </c>
+      <c r="R4" s="2">
+        <v>2260000</v>
+      </c>
+      <c r="S4" s="2">
+        <v>2260000</v>
+      </c>
+      <c r="T4" s="2">
+        <v>2260000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2940000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2950000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2970000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3050000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3140000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3200000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3200000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3210000</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3250000</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3200000</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3150000</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3100000</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3050000</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3070000</v>
+      </c>
+      <c r="P5" s="2">
+        <v>3050000</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2940000</v>
+      </c>
+      <c r="R5" s="2">
+        <v>2900000</v>
+      </c>
+      <c r="S5" s="2">
+        <v>2900000</v>
+      </c>
+      <c r="T5" s="2">
+        <v>2870000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1960000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1880000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1960000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1960000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1960000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2150000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2350000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2350000</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2350000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2350000</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2350000</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2040000</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2040000</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2040000</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2040000</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2040000</v>
+      </c>
+      <c r="R6" s="2">
+        <v>2040000</v>
+      </c>
+      <c r="S6" s="2">
+        <v>2040000</v>
+      </c>
+      <c r="T6" s="2">
+        <v>2040000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4230000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4230000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4230000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4270000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4320000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4320000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4320000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4320000</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4320000</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4270000</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4090000</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="P7" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="R7" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="S7" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="T7" s="2">
+        <v>3930000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2940000</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2950000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2970000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3050000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3140000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3200000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3200000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3210000</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3250000</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3200000</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3150000</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3100000</v>
+      </c>
+      <c r="N8" s="2">
+        <v>3050000</v>
+      </c>
+      <c r="O8" s="2">
+        <v>3070000</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3050000</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2940000</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2900000</v>
+      </c>
+      <c r="S8" s="2">
+        <v>2900000</v>
+      </c>
+      <c r="T8" s="2">
+        <v>2870000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3890000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3890000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3910000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3910000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3980000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4110000</v>
+      </c>
+      <c r="L9" s="2">
+        <v>4080000</v>
+      </c>
+      <c r="M9" s="2">
+        <v>4080000</v>
+      </c>
+      <c r="N9" s="2">
+        <v>4130000</v>
+      </c>
+      <c r="O9" s="2">
+        <v>4110000</v>
+      </c>
+      <c r="P9" s="2">
+        <v>4180000</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>4180000</v>
+      </c>
+      <c r="R9" s="2">
+        <v>4130000</v>
+      </c>
+      <c r="S9" s="2">
+        <v>4160000</v>
+      </c>
+      <c r="T9" s="2">
+        <v>4160000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1630000</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1650000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1650000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1670000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1670000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1780000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1870000</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1870000</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1850000</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1940000</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1940000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2010000</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2030000</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2030000</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2030000</v>
+      </c>
+      <c r="R10" s="2">
+        <v>2040000</v>
+      </c>
+      <c r="S10" s="2">
+        <v>2040000</v>
+      </c>
+      <c r="T10" s="2">
+        <v>2040000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2710000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2740000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2740000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2740000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2740000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>280000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>280000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>280000</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2770000</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2770000</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>280000</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="S11" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="T11" s="2">
+        <v>2990000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4030000</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4030000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4030000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4110000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4180000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4230000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4380000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4430000</v>
+      </c>
+      <c r="J12" s="2">
+        <v>4500000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>4480000</v>
+      </c>
+      <c r="L12" s="2">
+        <v>4470000</v>
+      </c>
+      <c r="M12" s="2">
+        <v>4520000</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4530000</v>
+      </c>
+      <c r="O12" s="2">
+        <v>4550000</v>
+      </c>
+      <c r="P12" s="2">
+        <v>4600000</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>4530000</v>
+      </c>
+      <c r="R12" s="2">
+        <v>4590000</v>
+      </c>
+      <c r="S12" s="2">
+        <v>4620000</v>
+      </c>
+      <c r="T12" s="2">
+        <v>4670000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datos_colonia.xlsx
+++ b/Datos_colonia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\IA\ia_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE45DC4-D898-4C6A-81D5-6C8E250E65D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045510A-9869-44AC-99D8-25B3EF352803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>remplaza tus datos aqui</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Loma bonita sur</t>
+  </si>
+  <si>
+    <t>Solares</t>
+  </si>
+  <si>
+    <t>Valle imperial</t>
+  </si>
+  <si>
+    <t>Puerta de Hierro</t>
+  </si>
+  <si>
+    <t>Americana</t>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>C.U.</t>
+  </si>
+  <si>
+    <t>Los Colomos</t>
+  </si>
+  <si>
+    <t>Chapalita</t>
+  </si>
+  <si>
+    <t>Guadalajara Centro</t>
+  </si>
+  <si>
+    <t>Bosques de la victoria</t>
+  </si>
+  <si>
+    <t>providencia 1a secc</t>
+  </si>
+  <si>
+    <t>Ladrón de Guevara</t>
+  </si>
+  <si>
+    <t>Ciudad Granja</t>
+  </si>
+  <si>
+    <t>Analco</t>
+  </si>
+  <si>
+    <t>Mirador San Isidro</t>
+  </si>
+  <si>
+    <t>Ciudad del Sol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,13 +118,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -345,17 +407,1128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44105</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44136</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44166</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44197</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44228</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44256</v>
+      </c>
+      <c r="I1" s="1">
+        <v>44287</v>
+      </c>
+      <c r="J1" s="1">
+        <v>44317</v>
+      </c>
+      <c r="K1" s="1">
+        <v>44348</v>
+      </c>
+      <c r="L1" s="1">
+        <v>44378</v>
+      </c>
+      <c r="M1" s="1">
+        <v>44409</v>
+      </c>
+      <c r="N1" s="1">
+        <v>44440</v>
+      </c>
+      <c r="O1" s="1">
+        <v>44470</v>
+      </c>
+      <c r="P1" s="1">
+        <v>44501</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>44531</v>
+      </c>
+      <c r="R1" s="1">
+        <v>44562</v>
+      </c>
+      <c r="S1" s="1">
+        <v>44593</v>
+      </c>
+      <c r="T1" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4120000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4130000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4130000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4120000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4250000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4250000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4380000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4430000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5020000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5020000</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5020000</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4700000</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4700000</v>
+      </c>
+      <c r="O2" s="2">
+        <v>4700000</v>
+      </c>
+      <c r="P2" s="2">
+        <v>4700000</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>4700000</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5020000</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5020000</v>
+      </c>
+      <c r="T2" s="2">
+        <v>5020000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5120000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5120000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5160000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5210000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5260000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5290000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5300000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5360000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5370000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5400000</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5400000</v>
+      </c>
+      <c r="M3" s="2">
+        <v>5410000</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5410000</v>
+      </c>
+      <c r="O3" s="2">
+        <v>5450000</v>
+      </c>
+      <c r="P3" s="2">
+        <v>5500000</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>5560000</v>
+      </c>
+      <c r="R3" s="2">
+        <v>5610000</v>
+      </c>
+      <c r="S3" s="2">
+        <v>5660000</v>
+      </c>
+      <c r="T3" s="2">
+        <v>5660000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3300000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3340000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3340000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3390000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3540000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3590000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3630000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3640000</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3690000</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3720000</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3730000</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3740000</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3790000</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3830000</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3890000</v>
+      </c>
+      <c r="S4" s="2">
+        <v>3890000</v>
+      </c>
+      <c r="T4" s="2">
+        <v>3900000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21600000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21400000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>21400000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21400000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>21500000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>21400000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>21400000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>20600000</v>
+      </c>
+      <c r="J5" s="2">
+        <v>20600000</v>
+      </c>
+      <c r="K5" s="2">
+        <v>20600000</v>
+      </c>
+      <c r="L5" s="2">
+        <v>20600000</v>
+      </c>
+      <c r="M5" s="2">
+        <v>20600000</v>
+      </c>
+      <c r="N5" s="2">
+        <v>20700000</v>
+      </c>
+      <c r="O5" s="2">
+        <v>20600000</v>
+      </c>
+      <c r="P5" s="2">
+        <v>20700000</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>20600000</v>
+      </c>
+      <c r="R5" s="2">
+        <v>20100000</v>
+      </c>
+      <c r="S5" s="2">
+        <v>19700000</v>
+      </c>
+      <c r="T5" s="2">
+        <v>19600000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8760000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8760000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8760000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8760000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8760000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8760000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8760000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8760000</v>
+      </c>
+      <c r="J6" s="2">
+        <v>8760000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>8760000</v>
+      </c>
+      <c r="L6" s="2">
+        <v>8760000</v>
+      </c>
+      <c r="M6" s="2">
+        <v>8760000</v>
+      </c>
+      <c r="N6" s="2">
+        <v>8760000</v>
+      </c>
+      <c r="O6" s="2">
+        <v>8760000</v>
+      </c>
+      <c r="P6" s="2">
+        <v>8760000</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>8070000</v>
+      </c>
+      <c r="R6" s="2">
+        <v>7850000</v>
+      </c>
+      <c r="S6" s="2">
+        <v>7820000</v>
+      </c>
+      <c r="T6" s="2">
+        <v>7670000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1570000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1570000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1570000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1570000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1570000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1570000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1600000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1640000</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1660000</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1660000</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1620000</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1620000</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1600000</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1520000</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1520000</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1520000</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1520000</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1560000</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1560000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3300000</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3300000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3300000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3020000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2460000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2460000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2980000</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2980000</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2980000</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2980000</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2160000</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2160000</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2160000</v>
+      </c>
+      <c r="P8" s="2">
+        <v>2160000</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2160000</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2160000</v>
+      </c>
+      <c r="S8" s="2">
+        <v>2160000</v>
+      </c>
+      <c r="T8" s="2">
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4630000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4630000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4630000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4630000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4630000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4630000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4630000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4630000</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4630000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>8610000</v>
+      </c>
+      <c r="L9" s="2">
+        <v>8610000</v>
+      </c>
+      <c r="M9" s="2">
+        <v>8610000</v>
+      </c>
+      <c r="N9" s="2">
+        <v>8610000</v>
+      </c>
+      <c r="O9" s="2">
+        <v>4650000</v>
+      </c>
+      <c r="P9" s="2">
+        <v>4650000</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>8610000</v>
+      </c>
+      <c r="R9" s="2">
+        <v>7570000</v>
+      </c>
+      <c r="S9" s="2">
+        <v>7570000</v>
+      </c>
+      <c r="T9" s="2">
+        <v>7570000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5690000</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5690000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5690000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5690000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5690000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5690000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5690000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5830000</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5800000</v>
+      </c>
+      <c r="K10" s="2">
+        <v>5700000</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5690000</v>
+      </c>
+      <c r="M10" s="2">
+        <v>5690000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>5800000</v>
+      </c>
+      <c r="O10" s="2">
+        <v>5800000</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5700000</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>5750000</v>
+      </c>
+      <c r="R10" s="2">
+        <v>5610000</v>
+      </c>
+      <c r="S10" s="2">
+        <v>5610000</v>
+      </c>
+      <c r="T10" s="2">
+        <v>5610000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3540000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3530000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3530000</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3490000</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="O11" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3340000</v>
+      </c>
+      <c r="R11" s="2">
+        <v>3250000</v>
+      </c>
+      <c r="S11" s="2">
+        <v>3150000</v>
+      </c>
+      <c r="T11" s="2">
+        <v>3320000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7410000</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7380000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7230000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7380000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6890000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6790000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6780000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>6570000</v>
+      </c>
+      <c r="J12" s="2">
+        <v>6470000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>6590000</v>
+      </c>
+      <c r="L12" s="2">
+        <v>6390000</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5950000</v>
+      </c>
+      <c r="N12" s="2">
+        <v>6000000</v>
+      </c>
+      <c r="O12" s="2">
+        <v>5950000</v>
+      </c>
+      <c r="P12" s="2">
+        <v>5900000</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>5710000</v>
+      </c>
+      <c r="R12" s="2">
+        <v>5560000</v>
+      </c>
+      <c r="S12" s="2">
+        <v>5700000</v>
+      </c>
+      <c r="T12" s="2">
+        <v>5650000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10700000</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10700000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10700000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10600000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10300000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10300000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10200000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9960000</v>
+      </c>
+      <c r="J13" s="2">
+        <v>9640000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>9530000</v>
+      </c>
+      <c r="L13" s="2">
+        <v>9390000</v>
+      </c>
+      <c r="M13" s="2">
+        <v>9350000</v>
+      </c>
+      <c r="N13" s="2">
+        <v>9220000</v>
+      </c>
+      <c r="O13" s="2">
+        <v>9050000</v>
+      </c>
+      <c r="P13" s="2">
+        <v>9100000</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>8360000</v>
+      </c>
+      <c r="R13" s="2">
+        <v>8020000</v>
+      </c>
+      <c r="S13" s="2">
+        <v>7870000</v>
+      </c>
+      <c r="T13" s="2">
+        <v>8210000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2940000</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2950000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2970000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3050000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3140000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3200000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3200000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3210000</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3250000</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3200000</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3150000</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3100000</v>
+      </c>
+      <c r="N14" s="2">
+        <v>3050000</v>
+      </c>
+      <c r="O14" s="2">
+        <v>3070000</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3050000</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2940000</v>
+      </c>
+      <c r="R14" s="2">
+        <v>2900000</v>
+      </c>
+      <c r="S14" s="2">
+        <v>2900000</v>
+      </c>
+      <c r="T14" s="2">
+        <v>2870000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3890000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3890000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3910000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3910000</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3930000</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3980000</v>
+      </c>
+      <c r="K15" s="2">
+        <v>4110000</v>
+      </c>
+      <c r="L15" s="2">
+        <v>4080000</v>
+      </c>
+      <c r="M15" s="2">
+        <v>4080000</v>
+      </c>
+      <c r="N15" s="2">
+        <v>4130000</v>
+      </c>
+      <c r="O15" s="2">
+        <v>4110000</v>
+      </c>
+      <c r="P15" s="2">
+        <v>4180000</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>4180000</v>
+      </c>
+      <c r="R15" s="2">
+        <v>4130000</v>
+      </c>
+      <c r="S15" s="2">
+        <v>4160000</v>
+      </c>
+      <c r="T15" s="2">
+        <v>4160000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1630000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1650000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1650000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1670000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1670000</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1780000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1870000</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1870000</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1850000</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1940000</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1940000</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2010000</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2030000</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2030000</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>2030000</v>
+      </c>
+      <c r="R16" s="2">
+        <v>2040000</v>
+      </c>
+      <c r="S16" s="2">
+        <v>2040000</v>
+      </c>
+      <c r="T16" s="2">
+        <v>2040000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2710000</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2740000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2740000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2740000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2740000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>280000</v>
+      </c>
+      <c r="H17" s="2">
+        <v>280000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>280000</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="O17" s="2">
+        <v>2770000</v>
+      </c>
+      <c r="P17" s="2">
+        <v>2770000</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>280000</v>
+      </c>
+      <c r="R17" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="S17" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="T17" s="2">
+        <v>2990000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4030000</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4030000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4030000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4110000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4180000</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4230000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4380000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4430000</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4500000</v>
+      </c>
+      <c r="K18" s="2">
+        <v>4480000</v>
+      </c>
+      <c r="L18" s="2">
+        <v>4470000</v>
+      </c>
+      <c r="M18" s="2">
+        <v>4520000</v>
+      </c>
+      <c r="N18" s="2">
+        <v>4530000</v>
+      </c>
+      <c r="O18" s="2">
+        <v>4550000</v>
+      </c>
+      <c r="P18" s="2">
+        <v>4600000</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>4530000</v>
+      </c>
+      <c r="R18" s="2">
+        <v>4590000</v>
+      </c>
+      <c r="S18" s="2">
+        <v>4620000</v>
+      </c>
+      <c r="T18" s="2">
+        <v>4670000</v>
       </c>
     </row>
   </sheetData>

--- a/Datos_colonia.xlsx
+++ b/Datos_colonia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\IA\ia_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045510A-9869-44AC-99D8-25B3EF352803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442B66E3-9AF5-43C7-B2F4-707B61444FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,6 +1531,11 @@
         <v>4670000</v>
       </c>
     </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datos_colonia.xlsx
+++ b/Datos_colonia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\IA\ia_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442B66E3-9AF5-43C7-B2F4-707B61444FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81456E2-0EEE-4806-9C39-34EF58BC7CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Loma bonita sur</t>
   </si>
@@ -76,6 +76,36 @@
   </si>
   <si>
     <t>Ciudad del Sol</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Balcones de santa maria</t>
+  </si>
+  <si>
+    <t>Arboledas del sur</t>
+  </si>
+  <si>
+    <t>Las aguilas</t>
+  </si>
+  <si>
+    <t>verde valle</t>
+  </si>
+  <si>
+    <t>chapalita oriente</t>
+  </si>
+  <si>
+    <t>Terranova</t>
+  </si>
+  <si>
+    <t>Las huertas</t>
+  </si>
+  <si>
+    <t>San Andres</t>
+  </si>
+  <si>
+    <t>Las conchas</t>
   </si>
 </sst>
 </file>
@@ -407,14 +437,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1531,9 +1563,624 @@
         <v>4670000</v>
       </c>
     </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3540000</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3530000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3530000</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3490000</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="M19" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="N19" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="O19" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="P19" s="2">
+        <v>3440000</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>3340000</v>
+      </c>
+      <c r="R19" s="2">
+        <v>3250000</v>
+      </c>
+      <c r="S19" s="2">
+        <v>3150000</v>
+      </c>
+      <c r="T19" s="2">
+        <v>3320000</v>
+      </c>
+    </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>512000</v>
+      </c>
+      <c r="C20" s="2">
+        <v>512000</v>
+      </c>
+      <c r="D20" s="2">
+        <v>541000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>512000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>536000</v>
+      </c>
+      <c r="G20" s="2">
+        <v>488000</v>
+      </c>
+      <c r="H20" s="2">
+        <v>488000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>512000</v>
+      </c>
+      <c r="J20" s="2">
+        <v>512000</v>
+      </c>
+      <c r="K20" s="2">
+        <v>488000</v>
+      </c>
+      <c r="L20" s="2">
+        <v>488000</v>
+      </c>
+      <c r="M20" s="2">
+        <v>512000</v>
+      </c>
+      <c r="N20" s="2">
+        <v>472000</v>
+      </c>
+      <c r="O20" s="2">
+        <v>472000</v>
+      </c>
+      <c r="P20" s="2">
+        <v>472000</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>472000</v>
+      </c>
+      <c r="R20" s="2">
+        <v>472000</v>
+      </c>
+      <c r="S20" s="2">
+        <v>649000</v>
+      </c>
+      <c r="T20" s="2">
+        <v>830000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1420000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1420000</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1420000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1420000</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1420000</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1420000</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1420000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1420000</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1420000</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1420000</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1460000</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1510000</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1460000</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1510000</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1560000</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1560000</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1560000</v>
+      </c>
+      <c r="S21" s="2">
+        <v>1560000</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1560000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2780000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="N22" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="O22" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="P22" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="R22" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="S22" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="T22" s="2">
+        <v>2750000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7770000</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7770000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7770000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7770000</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7770000</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7770000</v>
+      </c>
+      <c r="H23" s="2">
+        <v>7770000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>7770000</v>
+      </c>
+      <c r="J23" s="2">
+        <v>7770000</v>
+      </c>
+      <c r="K23" s="2">
+        <v>7770000</v>
+      </c>
+      <c r="L23" s="2">
+        <v>7770000</v>
+      </c>
+      <c r="M23" s="2">
+        <v>7770000</v>
+      </c>
+      <c r="N23" s="2">
+        <v>7770000</v>
+      </c>
+      <c r="O23" s="2">
+        <v>8780000</v>
+      </c>
+      <c r="P23" s="2">
+        <v>9810000</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>9180000</v>
+      </c>
+      <c r="R23" s="2">
+        <v>9180000</v>
+      </c>
+      <c r="S23" s="2">
+        <v>9180000</v>
+      </c>
+      <c r="T23" s="2">
+        <v>9180000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8240000</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8240000</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8240000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8720000</v>
+      </c>
+      <c r="F24" s="2">
+        <v>8720000</v>
+      </c>
+      <c r="G24" s="2">
+        <v>7160000</v>
+      </c>
+      <c r="H24" s="2">
+        <v>7620000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>8660000</v>
+      </c>
+      <c r="J24" s="2">
+        <v>8690000</v>
+      </c>
+      <c r="K24" s="2">
+        <v>8720000</v>
+      </c>
+      <c r="L24" s="2">
+        <v>8720000</v>
+      </c>
+      <c r="M24" s="2">
+        <v>8410000</v>
+      </c>
+      <c r="N24" s="2">
+        <v>8660000</v>
+      </c>
+      <c r="O24" s="2">
+        <v>8660000</v>
+      </c>
+      <c r="P24" s="2">
+        <v>8690000</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>8720000</v>
+      </c>
+      <c r="R24" s="2">
+        <v>8690000</v>
+      </c>
+      <c r="S24" s="2">
+        <v>8660000</v>
+      </c>
+      <c r="T24" s="2">
+        <v>8310000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>9820000</v>
+      </c>
+      <c r="C25" s="2">
+        <v>9820000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9820000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9820000</v>
+      </c>
+      <c r="F25" s="2">
+        <v>9820000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>9820000</v>
+      </c>
+      <c r="H25" s="2">
+        <v>9820000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>9830000</v>
+      </c>
+      <c r="J25" s="2">
+        <v>12200000</v>
+      </c>
+      <c r="K25" s="2">
+        <v>12200000</v>
+      </c>
+      <c r="L25" s="2">
+        <v>14500000</v>
+      </c>
+      <c r="M25" s="2">
+        <v>13700000</v>
+      </c>
+      <c r="N25" s="2">
+        <v>14100000</v>
+      </c>
+      <c r="O25" s="2">
+        <v>14100000</v>
+      </c>
+      <c r="P25" s="2">
+        <v>14100000</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>14100000</v>
+      </c>
+      <c r="R25" s="2">
+        <v>13700000</v>
+      </c>
+      <c r="S25" s="2">
+        <v>14100000</v>
+      </c>
+      <c r="T25" s="2">
+        <v>14100000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1130000</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1060000</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1060000</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1030000</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1080000</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1080000</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1060000</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1030000</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1010000</v>
+      </c>
+      <c r="S26" s="2">
+        <v>984000</v>
+      </c>
+      <c r="T26" s="2">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1460000</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1460000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1470000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1480000</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1480000</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1470000</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1470000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1520000</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1590000</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1760000</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1760000</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1680000</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1760000</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1770000</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1770000</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1770000</v>
+      </c>
+      <c r="R27" s="2">
+        <v>1570000</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1590000</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1570000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>850000</v>
+      </c>
+      <c r="C28" s="2">
+        <v>860000</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1270000</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1100000</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1180000</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1100000</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1100000</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1230000</v>
+      </c>
+      <c r="R28" s="2">
+        <v>1370000</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1940000</v>
+      </c>
+      <c r="T28" s="2">
+        <v>1940000</v>
       </c>
     </row>
   </sheetData>

--- a/Datos_colonia.xlsx
+++ b/Datos_colonia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\IA\ia_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81456E2-0EEE-4806-9C39-34EF58BC7CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884BFB01-50B6-4224-B565-04B83CCC799B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Loma bonita sur</t>
   </si>
@@ -106,6 +106,54 @@
   </si>
   <si>
     <t>Las conchas</t>
+  </si>
+  <si>
+    <t>Providencia 2a secc</t>
+  </si>
+  <si>
+    <t>18 de Marzo</t>
+  </si>
+  <si>
+    <t>1o de mayo</t>
+  </si>
+  <si>
+    <t>8 de julio</t>
+  </si>
+  <si>
+    <t>Joaquin Aaron</t>
+  </si>
+  <si>
+    <t>El Dean</t>
+  </si>
+  <si>
+    <t>Jardines Alcalde</t>
+  </si>
+  <si>
+    <t>Alcalde Barranquitas</t>
+  </si>
+  <si>
+    <t>Altavista</t>
+  </si>
+  <si>
+    <t>colon</t>
+  </si>
+  <si>
+    <t>Belisario Dominguez</t>
+  </si>
+  <si>
+    <t>Agustín Yañez</t>
+  </si>
+  <si>
+    <t>colinas de la normal</t>
+  </si>
+  <si>
+    <t>colinas de huentitán</t>
+  </si>
+  <si>
+    <t>colinas de las aguilas</t>
+  </si>
+  <si>
+    <t>independencia</t>
   </si>
 </sst>
 </file>
@@ -152,9 +200,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -437,11 +487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,6 +2233,998 @@
         <v>1940000</v>
       </c>
     </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>8360000</v>
+      </c>
+      <c r="C29" s="4">
+        <v>8360000</v>
+      </c>
+      <c r="D29" s="4">
+        <v>8360000</v>
+      </c>
+      <c r="E29" s="4">
+        <v>8360000</v>
+      </c>
+      <c r="F29" s="4">
+        <v>8360000</v>
+      </c>
+      <c r="G29" s="4">
+        <v>7860000</v>
+      </c>
+      <c r="H29" s="4">
+        <v>7620000</v>
+      </c>
+      <c r="I29" s="4">
+        <v>7770000</v>
+      </c>
+      <c r="J29" s="4">
+        <v>7480000</v>
+      </c>
+      <c r="K29" s="4">
+        <v>7770000</v>
+      </c>
+      <c r="L29" s="4">
+        <v>7770000</v>
+      </c>
+      <c r="M29" s="4">
+        <v>7620000</v>
+      </c>
+      <c r="N29" s="4">
+        <v>7480000</v>
+      </c>
+      <c r="O29" s="4">
+        <v>7620000</v>
+      </c>
+      <c r="P29" s="4">
+        <v>7770000</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>7480000</v>
+      </c>
+      <c r="R29" s="4">
+        <v>7480000</v>
+      </c>
+      <c r="S29" s="4">
+        <v>7480000</v>
+      </c>
+      <c r="T29" s="4">
+        <v>7480000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1230000</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1230000</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1250000</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1250000</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1280000</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1720000</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1830000</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1720000</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1830000</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1790000</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1610000</v>
+      </c>
+      <c r="M30" s="4">
+        <v>1780000</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1780000</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1580000</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1580000</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1550000</v>
+      </c>
+      <c r="R30" s="4">
+        <v>1290000</v>
+      </c>
+      <c r="S30" s="4">
+        <v>1030000</v>
+      </c>
+      <c r="T30" s="4">
+        <v>1030000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1380000</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1380000</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1380000</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1380000</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1380000</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1380000</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1330000</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1380000</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1380000</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1380000</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1380000</v>
+      </c>
+      <c r="M31" s="4">
+        <v>1380000</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1380000</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1380000</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1300000</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>1300000</v>
+      </c>
+      <c r="R31" s="4">
+        <v>1210000</v>
+      </c>
+      <c r="S31" s="4">
+        <v>1180000</v>
+      </c>
+      <c r="T31" s="4">
+        <v>1180000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1770000</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1770000</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1770000</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1330000</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1330000</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1800000</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1820000</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1820000</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1820000</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1820000</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1820000</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1820000</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1820000</v>
+      </c>
+      <c r="O32" s="4">
+        <v>1820000</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1820000</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>1820000</v>
+      </c>
+      <c r="R32" s="4">
+        <v>1820000</v>
+      </c>
+      <c r="S32" s="4">
+        <v>1820000</v>
+      </c>
+      <c r="T32" s="4">
+        <v>1820000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1460000</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1460000</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1460000</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1460000</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1460000</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1560000</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1560000</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1560000</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1560000</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1560000</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1560000</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1560000</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1660000</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1660000</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1660000</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>1750000</v>
+      </c>
+      <c r="R33" s="4">
+        <v>1440000</v>
+      </c>
+      <c r="S33" s="4">
+        <v>1020000</v>
+      </c>
+      <c r="T33" s="4">
+        <v>1020000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1070000</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1070000</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1070000</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1070000</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1150000</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1150000</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1150000</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1230000</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1230000</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1230000</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1230000</v>
+      </c>
+      <c r="M34" s="4">
+        <v>1230000</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1390000</v>
+      </c>
+      <c r="O34" s="4">
+        <v>1390000</v>
+      </c>
+      <c r="P34" s="4">
+        <v>1390000</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>1150000</v>
+      </c>
+      <c r="R34" s="4">
+        <v>1310000</v>
+      </c>
+      <c r="S34" s="4">
+        <v>1630000</v>
+      </c>
+      <c r="T34" s="4">
+        <v>1590000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4">
+        <v>3660000</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3660000</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3730000</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3730000</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3790000</v>
+      </c>
+      <c r="G35" s="4">
+        <v>3790000</v>
+      </c>
+      <c r="H35" s="4">
+        <v>3770000</v>
+      </c>
+      <c r="I35" s="4">
+        <v>3840000</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3740000</v>
+      </c>
+      <c r="K35" s="4">
+        <v>3740000</v>
+      </c>
+      <c r="L35" s="4">
+        <v>3840000</v>
+      </c>
+      <c r="M35" s="4">
+        <v>3730000</v>
+      </c>
+      <c r="N35" s="4">
+        <v>3840000</v>
+      </c>
+      <c r="O35" s="4">
+        <v>3840000</v>
+      </c>
+      <c r="P35" s="4">
+        <v>3840000</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>3860000</v>
+      </c>
+      <c r="R35" s="4">
+        <v>3930000</v>
+      </c>
+      <c r="S35" s="4">
+        <v>4110000</v>
+      </c>
+      <c r="T35" s="4">
+        <v>4180000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2610000</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2610000</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2610000</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2640000</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2670000</v>
+      </c>
+      <c r="G36" s="4">
+        <v>2720000</v>
+      </c>
+      <c r="H36" s="4">
+        <v>2640000</v>
+      </c>
+      <c r="I36" s="4">
+        <v>2550000</v>
+      </c>
+      <c r="J36" s="4">
+        <v>2580000</v>
+      </c>
+      <c r="K36" s="4">
+        <v>2560000</v>
+      </c>
+      <c r="L36" s="4">
+        <v>2550000</v>
+      </c>
+      <c r="M36" s="4">
+        <v>2460000</v>
+      </c>
+      <c r="N36" s="4">
+        <v>2520000</v>
+      </c>
+      <c r="O36" s="4">
+        <v>2510000</v>
+      </c>
+      <c r="P36" s="4">
+        <v>2500000</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>2480000</v>
+      </c>
+      <c r="R36" s="4">
+        <v>2450000</v>
+      </c>
+      <c r="S36" s="4">
+        <v>2450000</v>
+      </c>
+      <c r="T36" s="4">
+        <v>2460000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1810000</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1810000</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1730000</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1730000</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1620000</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1620000</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1570000</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1570000</v>
+      </c>
+      <c r="J37" s="4">
+        <v>2030000</v>
+      </c>
+      <c r="K37" s="4">
+        <v>2210000</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1840000</v>
+      </c>
+      <c r="M37" s="4">
+        <v>2560000</v>
+      </c>
+      <c r="N37" s="4">
+        <v>2900000</v>
+      </c>
+      <c r="O37" s="4">
+        <v>2900000</v>
+      </c>
+      <c r="P37" s="4">
+        <v>2900000</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>2900000</v>
+      </c>
+      <c r="R37" s="4">
+        <v>2900000</v>
+      </c>
+      <c r="S37" s="4">
+        <v>2900000</v>
+      </c>
+      <c r="T37" s="4">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4">
+        <v>3890000</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3890000</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3760000</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3760000</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3300000</v>
+      </c>
+      <c r="G38" s="4">
+        <v>3640000</v>
+      </c>
+      <c r="H38" s="4">
+        <v>3760000</v>
+      </c>
+      <c r="I38" s="4">
+        <v>3760000</v>
+      </c>
+      <c r="J38" s="4">
+        <v>3640000</v>
+      </c>
+      <c r="K38" s="4">
+        <v>3640000</v>
+      </c>
+      <c r="L38" s="4">
+        <v>3890000</v>
+      </c>
+      <c r="M38" s="4">
+        <v>3890000</v>
+      </c>
+      <c r="N38" s="4">
+        <v>3760000</v>
+      </c>
+      <c r="O38" s="4">
+        <v>3810000</v>
+      </c>
+      <c r="P38" s="4">
+        <v>3690000</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>3340000</v>
+      </c>
+      <c r="R38" s="4">
+        <v>3810000</v>
+      </c>
+      <c r="S38" s="4">
+        <v>3810000</v>
+      </c>
+      <c r="T38" s="4">
+        <v>3340000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2070000</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2070000</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2160000</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2160000</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2160000</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2160000</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2160000</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2160000</v>
+      </c>
+      <c r="J39" s="4">
+        <v>2160000</v>
+      </c>
+      <c r="K39" s="4">
+        <v>2450000</v>
+      </c>
+      <c r="L39" s="4">
+        <v>2480000</v>
+      </c>
+      <c r="M39" s="4">
+        <v>2750000</v>
+      </c>
+      <c r="N39" s="4">
+        <v>2750000</v>
+      </c>
+      <c r="O39" s="4">
+        <v>2750000</v>
+      </c>
+      <c r="P39" s="4">
+        <v>2750000</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>2750000</v>
+      </c>
+      <c r="R39" s="4">
+        <v>2750000</v>
+      </c>
+      <c r="S39" s="4">
+        <v>2750000</v>
+      </c>
+      <c r="T39" s="4">
+        <v>2750000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2430000</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2430000</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2430000</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1620000</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1620000</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1620000</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1620000</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1620000</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1620000</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1620000</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1700000</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1700000</v>
+      </c>
+      <c r="N40" s="4">
+        <v>1700000</v>
+      </c>
+      <c r="O40" s="4">
+        <v>1700000</v>
+      </c>
+      <c r="P40" s="4">
+        <v>1620000</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>1700000</v>
+      </c>
+      <c r="R40" s="4">
+        <v>1770000</v>
+      </c>
+      <c r="S40" s="4">
+        <v>1770000</v>
+      </c>
+      <c r="T40" s="4">
+        <v>1770000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4">
+        <v>5160000</v>
+      </c>
+      <c r="C41" s="4">
+        <v>5160000</v>
+      </c>
+      <c r="D41" s="4">
+        <v>5160000</v>
+      </c>
+      <c r="E41" s="4">
+        <v>5160000</v>
+      </c>
+      <c r="F41" s="4">
+        <v>5160000</v>
+      </c>
+      <c r="G41" s="4">
+        <v>5160000</v>
+      </c>
+      <c r="H41" s="4">
+        <v>5160000</v>
+      </c>
+      <c r="I41" s="4">
+        <v>5160000</v>
+      </c>
+      <c r="J41" s="4">
+        <v>5160000</v>
+      </c>
+      <c r="K41" s="4">
+        <v>5160000</v>
+      </c>
+      <c r="L41" s="4">
+        <v>5160000</v>
+      </c>
+      <c r="M41" s="4">
+        <v>5160000</v>
+      </c>
+      <c r="N41" s="4">
+        <v>5210000</v>
+      </c>
+      <c r="O41" s="4">
+        <v>5310000</v>
+      </c>
+      <c r="P41" s="4">
+        <v>5360000</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>5360000</v>
+      </c>
+      <c r="R41" s="4">
+        <v>5310000</v>
+      </c>
+      <c r="S41" s="4">
+        <v>5400000</v>
+      </c>
+      <c r="T41" s="4">
+        <v>5460000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2150000</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2150000</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2150000</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2150000</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2150000</v>
+      </c>
+      <c r="G42" s="4">
+        <v>2150000</v>
+      </c>
+      <c r="H42" s="4">
+        <v>2150000</v>
+      </c>
+      <c r="I42" s="4">
+        <v>2150000</v>
+      </c>
+      <c r="J42" s="4">
+        <v>2150000</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1490000</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1440000</v>
+      </c>
+      <c r="M42" s="4">
+        <v>1440000</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1440000</v>
+      </c>
+      <c r="O42" s="4">
+        <v>1440000</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1440000</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>1440000</v>
+      </c>
+      <c r="R42" s="4">
+        <v>1390000</v>
+      </c>
+      <c r="S42" s="4">
+        <v>1330000</v>
+      </c>
+      <c r="T42" s="4">
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2650000</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2650000</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2660000</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2660000</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2660000</v>
+      </c>
+      <c r="G43" s="4">
+        <v>2660000</v>
+      </c>
+      <c r="H43" s="4">
+        <v>2660000</v>
+      </c>
+      <c r="I43" s="4">
+        <v>2710000</v>
+      </c>
+      <c r="J43" s="4">
+        <v>2800000</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2850000</v>
+      </c>
+      <c r="L43" s="4">
+        <v>2780000</v>
+      </c>
+      <c r="M43" s="4">
+        <v>2850000</v>
+      </c>
+      <c r="N43" s="4">
+        <v>3100000</v>
+      </c>
+      <c r="O43" s="4">
+        <v>3180000</v>
+      </c>
+      <c r="P43" s="4">
+        <v>3140000</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>3340000</v>
+      </c>
+      <c r="R43" s="4">
+        <v>3340000</v>
+      </c>
+      <c r="S43" s="4">
+        <v>3340000</v>
+      </c>
+      <c r="T43" s="4">
+        <v>3340000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4">
+        <v>3640000</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3640000</v>
+      </c>
+      <c r="D44" s="4">
+        <v>3640000</v>
+      </c>
+      <c r="E44" s="4">
+        <v>3640000</v>
+      </c>
+      <c r="F44" s="4">
+        <v>3640000</v>
+      </c>
+      <c r="G44" s="4">
+        <v>3640000</v>
+      </c>
+      <c r="H44" s="4">
+        <v>3640000</v>
+      </c>
+      <c r="I44" s="4">
+        <v>3640000</v>
+      </c>
+      <c r="J44" s="4">
+        <v>3740000</v>
+      </c>
+      <c r="K44" s="4">
+        <v>3740000</v>
+      </c>
+      <c r="L44" s="4">
+        <v>3740000</v>
+      </c>
+      <c r="M44" s="4">
+        <v>3740000</v>
+      </c>
+      <c r="N44" s="4">
+        <v>3740000</v>
+      </c>
+      <c r="O44" s="4">
+        <v>3740000</v>
+      </c>
+      <c r="P44" s="4">
+        <v>3740000</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>3570000</v>
+      </c>
+      <c r="R44" s="4">
+        <v>3380000</v>
+      </c>
+      <c r="S44" s="4">
+        <v>3250000</v>
+      </c>
+      <c r="T44" s="4">
+        <v>3000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datos_colonia.xlsx
+++ b/Datos_colonia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\IA\ia_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884BFB01-50B6-4224-B565-04B83CCC799B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF373784-40B0-45F0-B320-6B99E9C812EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,11 +487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +500,7 @@
     <col min="2" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>44075</v>
       </c>
@@ -561,799 +561,799 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>4120000</v>
+        <v>512000</v>
       </c>
       <c r="C2" s="2">
-        <v>4130000</v>
+        <v>512000</v>
       </c>
       <c r="D2" s="2">
-        <v>4130000</v>
+        <v>541000</v>
       </c>
       <c r="E2" s="2">
-        <v>4120000</v>
+        <v>512000</v>
       </c>
       <c r="F2" s="2">
-        <v>4250000</v>
+        <v>536000</v>
       </c>
       <c r="G2" s="2">
-        <v>4250000</v>
+        <v>488000</v>
       </c>
       <c r="H2" s="2">
-        <v>4380000</v>
+        <v>488000</v>
       </c>
       <c r="I2" s="2">
-        <v>4430000</v>
+        <v>512000</v>
       </c>
       <c r="J2" s="2">
-        <v>5020000</v>
+        <v>512000</v>
       </c>
       <c r="K2" s="2">
-        <v>5020000</v>
+        <v>488000</v>
       </c>
       <c r="L2" s="2">
-        <v>5020000</v>
+        <v>488000</v>
       </c>
       <c r="M2" s="2">
-        <v>4700000</v>
+        <v>512000</v>
       </c>
       <c r="N2" s="2">
-        <v>4700000</v>
+        <v>472000</v>
       </c>
       <c r="O2" s="2">
-        <v>4700000</v>
+        <v>472000</v>
       </c>
       <c r="P2" s="2">
-        <v>4700000</v>
+        <v>472000</v>
       </c>
       <c r="Q2" s="2">
-        <v>4700000</v>
+        <v>472000</v>
       </c>
       <c r="R2" s="2">
-        <v>5020000</v>
+        <v>472000</v>
       </c>
       <c r="S2" s="2">
-        <v>5020000</v>
+        <v>649000</v>
       </c>
       <c r="T2" s="2">
-        <v>5020000</v>
+        <v>830000</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
-        <v>5120000</v>
+        <v>850000</v>
       </c>
       <c r="C3" s="2">
-        <v>5120000</v>
+        <v>860000</v>
       </c>
       <c r="D3" s="2">
-        <v>5160000</v>
+        <v>1180000</v>
       </c>
       <c r="E3" s="2">
-        <v>5210000</v>
+        <v>1180000</v>
       </c>
       <c r="F3" s="2">
-        <v>5260000</v>
+        <v>1270000</v>
       </c>
       <c r="G3" s="2">
-        <v>5290000</v>
+        <v>1180000</v>
       </c>
       <c r="H3" s="2">
-        <v>5300000</v>
+        <v>1180000</v>
       </c>
       <c r="I3" s="2">
-        <v>5360000</v>
+        <v>1180000</v>
       </c>
       <c r="J3" s="2">
-        <v>5370000</v>
+        <v>1180000</v>
       </c>
       <c r="K3" s="2">
-        <v>5400000</v>
+        <v>1180000</v>
       </c>
       <c r="L3" s="2">
-        <v>5400000</v>
+        <v>1100000</v>
       </c>
       <c r="M3" s="2">
-        <v>5410000</v>
+        <v>1180000</v>
       </c>
       <c r="N3" s="2">
-        <v>5410000</v>
+        <v>1180000</v>
       </c>
       <c r="O3" s="2">
-        <v>5450000</v>
+        <v>1100000</v>
       </c>
       <c r="P3" s="2">
-        <v>5500000</v>
+        <v>1100000</v>
       </c>
       <c r="Q3" s="2">
-        <v>5560000</v>
+        <v>1230000</v>
       </c>
       <c r="R3" s="2">
-        <v>5610000</v>
+        <v>1370000</v>
       </c>
       <c r="S3" s="2">
-        <v>5660000</v>
+        <v>1940000</v>
       </c>
       <c r="T3" s="2">
-        <v>5660000</v>
+        <v>1940000</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2">
-        <v>3300000</v>
+        <v>1070000</v>
       </c>
       <c r="C4" s="2">
-        <v>3340000</v>
+        <v>1070000</v>
       </c>
       <c r="D4" s="2">
-        <v>3340000</v>
+        <v>1070000</v>
       </c>
       <c r="E4" s="2">
-        <v>3390000</v>
+        <v>1070000</v>
       </c>
       <c r="F4" s="2">
-        <v>3440000</v>
+        <v>1150000</v>
       </c>
       <c r="G4" s="2">
-        <v>3440000</v>
+        <v>1150000</v>
       </c>
       <c r="H4" s="2">
-        <v>3540000</v>
+        <v>1150000</v>
       </c>
       <c r="I4" s="2">
-        <v>3590000</v>
+        <v>1230000</v>
       </c>
       <c r="J4" s="2">
-        <v>3630000</v>
+        <v>1230000</v>
       </c>
       <c r="K4" s="2">
-        <v>3640000</v>
+        <v>1230000</v>
       </c>
       <c r="L4" s="2">
-        <v>3690000</v>
+        <v>1230000</v>
       </c>
       <c r="M4" s="2">
-        <v>3720000</v>
+        <v>1230000</v>
       </c>
       <c r="N4" s="2">
-        <v>3730000</v>
+        <v>1390000</v>
       </c>
       <c r="O4" s="2">
-        <v>3740000</v>
+        <v>1390000</v>
       </c>
       <c r="P4" s="2">
-        <v>3790000</v>
+        <v>1390000</v>
       </c>
       <c r="Q4" s="2">
-        <v>3830000</v>
+        <v>1150000</v>
       </c>
       <c r="R4" s="2">
-        <v>3890000</v>
+        <v>1310000</v>
       </c>
       <c r="S4" s="2">
-        <v>3890000</v>
+        <v>1630000</v>
       </c>
       <c r="T4" s="2">
-        <v>3900000</v>
+        <v>1590000</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2">
-        <v>21600000</v>
+        <v>1180000</v>
       </c>
       <c r="C5" s="2">
-        <v>21400000</v>
+        <v>1180000</v>
       </c>
       <c r="D5" s="2">
-        <v>21400000</v>
+        <v>1180000</v>
       </c>
       <c r="E5" s="2">
-        <v>21400000</v>
+        <v>1180000</v>
       </c>
       <c r="F5" s="2">
-        <v>21500000</v>
+        <v>1180000</v>
       </c>
       <c r="G5" s="2">
-        <v>21400000</v>
+        <v>1180000</v>
       </c>
       <c r="H5" s="2">
-        <v>21400000</v>
+        <v>1180000</v>
       </c>
       <c r="I5" s="2">
-        <v>20600000</v>
+        <v>1180000</v>
       </c>
       <c r="J5" s="2">
-        <v>20600000</v>
+        <v>1130000</v>
       </c>
       <c r="K5" s="2">
-        <v>20600000</v>
+        <v>1060000</v>
       </c>
       <c r="L5" s="2">
-        <v>20600000</v>
+        <v>1060000</v>
       </c>
       <c r="M5" s="2">
-        <v>20600000</v>
+        <v>1030000</v>
       </c>
       <c r="N5" s="2">
-        <v>20700000</v>
+        <v>1080000</v>
       </c>
       <c r="O5" s="2">
-        <v>20600000</v>
+        <v>1080000</v>
       </c>
       <c r="P5" s="2">
-        <v>20700000</v>
+        <v>1060000</v>
       </c>
       <c r="Q5" s="2">
-        <v>20600000</v>
+        <v>1030000</v>
       </c>
       <c r="R5" s="2">
-        <v>20100000</v>
+        <v>1010000</v>
       </c>
       <c r="S5" s="2">
-        <v>19700000</v>
+        <v>984000</v>
       </c>
       <c r="T5" s="2">
-        <v>19600000</v>
+        <v>1080000</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2">
-        <v>8760000</v>
+        <v>1230000</v>
       </c>
       <c r="C6" s="2">
-        <v>8760000</v>
+        <v>1230000</v>
       </c>
       <c r="D6" s="2">
-        <v>8760000</v>
+        <v>1250000</v>
       </c>
       <c r="E6" s="2">
-        <v>8760000</v>
+        <v>1250000</v>
       </c>
       <c r="F6" s="2">
-        <v>8760000</v>
+        <v>1280000</v>
       </c>
       <c r="G6" s="2">
-        <v>8760000</v>
+        <v>1720000</v>
       </c>
       <c r="H6" s="2">
-        <v>8760000</v>
+        <v>1830000</v>
       </c>
       <c r="I6" s="2">
-        <v>8760000</v>
+        <v>1720000</v>
       </c>
       <c r="J6" s="2">
-        <v>8760000</v>
+        <v>1830000</v>
       </c>
       <c r="K6" s="2">
-        <v>8760000</v>
+        <v>1790000</v>
       </c>
       <c r="L6" s="2">
-        <v>8760000</v>
+        <v>1610000</v>
       </c>
       <c r="M6" s="2">
-        <v>8760000</v>
+        <v>1780000</v>
       </c>
       <c r="N6" s="2">
-        <v>8760000</v>
+        <v>1780000</v>
       </c>
       <c r="O6" s="2">
-        <v>8760000</v>
+        <v>1580000</v>
       </c>
       <c r="P6" s="2">
-        <v>8760000</v>
+        <v>1580000</v>
       </c>
       <c r="Q6" s="2">
-        <v>8070000</v>
+        <v>1550000</v>
       </c>
       <c r="R6" s="2">
-        <v>7850000</v>
+        <v>1290000</v>
       </c>
       <c r="S6" s="2">
-        <v>7820000</v>
+        <v>1030000</v>
       </c>
       <c r="T6" s="2">
-        <v>7670000</v>
+        <v>1030000</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2">
-        <v>1570000</v>
+        <v>1380000</v>
       </c>
       <c r="C7" s="2">
-        <v>1570000</v>
+        <v>1380000</v>
       </c>
       <c r="D7" s="2">
-        <v>1570000</v>
+        <v>1380000</v>
       </c>
       <c r="E7" s="2">
-        <v>1570000</v>
+        <v>1380000</v>
       </c>
       <c r="F7" s="2">
-        <v>1570000</v>
+        <v>1380000</v>
       </c>
       <c r="G7" s="2">
-        <v>1570000</v>
+        <v>1380000</v>
       </c>
       <c r="H7" s="2">
-        <v>1600000</v>
+        <v>1330000</v>
       </c>
       <c r="I7" s="2">
-        <v>1640000</v>
+        <v>1380000</v>
       </c>
       <c r="J7" s="2">
-        <v>1660000</v>
+        <v>1380000</v>
       </c>
       <c r="K7" s="2">
-        <v>1660000</v>
+        <v>1380000</v>
       </c>
       <c r="L7" s="2">
-        <v>1620000</v>
+        <v>1380000</v>
       </c>
       <c r="M7" s="2">
-        <v>1620000</v>
+        <v>1380000</v>
       </c>
       <c r="N7" s="2">
-        <v>1600000</v>
+        <v>1380000</v>
       </c>
       <c r="O7" s="2">
-        <v>1520000</v>
+        <v>1380000</v>
       </c>
       <c r="P7" s="2">
-        <v>1520000</v>
+        <v>1300000</v>
       </c>
       <c r="Q7" s="2">
-        <v>1520000</v>
+        <v>1300000</v>
       </c>
       <c r="R7" s="2">
-        <v>1520000</v>
+        <v>1210000</v>
       </c>
       <c r="S7" s="2">
-        <v>1560000</v>
+        <v>1180000</v>
       </c>
       <c r="T7" s="2">
-        <v>1560000</v>
+        <v>1180000</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>3300000</v>
+        <v>1420000</v>
       </c>
       <c r="C8" s="2">
-        <v>3300000</v>
+        <v>1420000</v>
       </c>
       <c r="D8" s="2">
-        <v>3300000</v>
+        <v>1420000</v>
       </c>
       <c r="E8" s="2">
-        <v>3020000</v>
+        <v>1420000</v>
       </c>
       <c r="F8" s="2">
-        <v>2750000</v>
+        <v>1420000</v>
       </c>
       <c r="G8" s="2">
-        <v>2460000</v>
+        <v>1420000</v>
       </c>
       <c r="H8" s="2">
-        <v>2460000</v>
+        <v>1420000</v>
       </c>
       <c r="I8" s="2">
-        <v>2980000</v>
+        <v>1420000</v>
       </c>
       <c r="J8" s="2">
-        <v>2980000</v>
+        <v>1420000</v>
       </c>
       <c r="K8" s="2">
-        <v>2980000</v>
+        <v>1420000</v>
       </c>
       <c r="L8" s="2">
-        <v>2980000</v>
+        <v>1460000</v>
       </c>
       <c r="M8" s="2">
-        <v>2160000</v>
+        <v>1510000</v>
       </c>
       <c r="N8" s="2">
-        <v>2160000</v>
+        <v>1460000</v>
       </c>
       <c r="O8" s="2">
-        <v>2160000</v>
+        <v>1510000</v>
       </c>
       <c r="P8" s="2">
-        <v>2160000</v>
+        <v>1560000</v>
       </c>
       <c r="Q8" s="2">
-        <v>2160000</v>
+        <v>1560000</v>
       </c>
       <c r="R8" s="2">
-        <v>2160000</v>
+        <v>1560000</v>
       </c>
       <c r="S8" s="2">
-        <v>2160000</v>
+        <v>1560000</v>
       </c>
       <c r="T8" s="2">
-        <v>2160000</v>
+        <v>1560000</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>4630000</v>
+        <v>1460000</v>
       </c>
       <c r="C9" s="2">
-        <v>4630000</v>
+        <v>1460000</v>
       </c>
       <c r="D9" s="2">
-        <v>4630000</v>
+        <v>1470000</v>
       </c>
       <c r="E9" s="2">
-        <v>4630000</v>
+        <v>1480000</v>
       </c>
       <c r="F9" s="2">
-        <v>4630000</v>
+        <v>1480000</v>
       </c>
       <c r="G9" s="2">
-        <v>4630000</v>
+        <v>1470000</v>
       </c>
       <c r="H9" s="2">
-        <v>4630000</v>
+        <v>1470000</v>
       </c>
       <c r="I9" s="2">
-        <v>4630000</v>
+        <v>1520000</v>
       </c>
       <c r="J9" s="2">
-        <v>4630000</v>
+        <v>1590000</v>
       </c>
       <c r="K9" s="2">
-        <v>8610000</v>
+        <v>1760000</v>
       </c>
       <c r="L9" s="2">
-        <v>8610000</v>
+        <v>1760000</v>
       </c>
       <c r="M9" s="2">
-        <v>8610000</v>
+        <v>1680000</v>
       </c>
       <c r="N9" s="2">
-        <v>8610000</v>
+        <v>1760000</v>
       </c>
       <c r="O9" s="2">
-        <v>4650000</v>
+        <v>1770000</v>
       </c>
       <c r="P9" s="2">
-        <v>4650000</v>
+        <v>1770000</v>
       </c>
       <c r="Q9" s="2">
-        <v>8610000</v>
+        <v>1770000</v>
       </c>
       <c r="R9" s="2">
-        <v>7570000</v>
+        <v>1570000</v>
       </c>
       <c r="S9" s="2">
-        <v>7570000</v>
+        <v>1590000</v>
       </c>
       <c r="T9" s="2">
-        <v>7570000</v>
+        <v>1570000</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2">
-        <v>5690000</v>
+        <v>1460000</v>
       </c>
       <c r="C10" s="2">
-        <v>5690000</v>
+        <v>1460000</v>
       </c>
       <c r="D10" s="2">
-        <v>5690000</v>
+        <v>1460000</v>
       </c>
       <c r="E10" s="2">
-        <v>5690000</v>
+        <v>1460000</v>
       </c>
       <c r="F10" s="2">
-        <v>5690000</v>
+        <v>1460000</v>
       </c>
       <c r="G10" s="2">
-        <v>5690000</v>
+        <v>1560000</v>
       </c>
       <c r="H10" s="2">
-        <v>5690000</v>
+        <v>1560000</v>
       </c>
       <c r="I10" s="2">
-        <v>5830000</v>
+        <v>1560000</v>
       </c>
       <c r="J10" s="2">
-        <v>5800000</v>
+        <v>1560000</v>
       </c>
       <c r="K10" s="2">
-        <v>5700000</v>
+        <v>1560000</v>
       </c>
       <c r="L10" s="2">
-        <v>5690000</v>
+        <v>1560000</v>
       </c>
       <c r="M10" s="2">
-        <v>5690000</v>
+        <v>1560000</v>
       </c>
       <c r="N10" s="2">
-        <v>5800000</v>
+        <v>1660000</v>
       </c>
       <c r="O10" s="2">
-        <v>5800000</v>
+        <v>1660000</v>
       </c>
       <c r="P10" s="2">
-        <v>5700000</v>
+        <v>1660000</v>
       </c>
       <c r="Q10" s="2">
-        <v>5750000</v>
+        <v>1750000</v>
       </c>
       <c r="R10" s="2">
-        <v>5610000</v>
+        <v>1440000</v>
       </c>
       <c r="S10" s="2">
-        <v>5610000</v>
+        <v>1020000</v>
       </c>
       <c r="T10" s="2">
-        <v>5610000</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2">
-        <v>3440000</v>
+        <v>1570000</v>
       </c>
       <c r="C11" s="2">
-        <v>3440000</v>
+        <v>1570000</v>
       </c>
       <c r="D11" s="2">
-        <v>3440000</v>
+        <v>1570000</v>
       </c>
       <c r="E11" s="2">
-        <v>3440000</v>
+        <v>1570000</v>
       </c>
       <c r="F11" s="2">
-        <v>3440000</v>
+        <v>1570000</v>
       </c>
       <c r="G11" s="2">
-        <v>3540000</v>
+        <v>1570000</v>
       </c>
       <c r="H11" s="2">
-        <v>3530000</v>
+        <v>1600000</v>
       </c>
       <c r="I11" s="2">
-        <v>3530000</v>
+        <v>1640000</v>
       </c>
       <c r="J11" s="2">
-        <v>3440000</v>
+        <v>1660000</v>
       </c>
       <c r="K11" s="2">
-        <v>3490000</v>
+        <v>1660000</v>
       </c>
       <c r="L11" s="2">
-        <v>3440000</v>
+        <v>1620000</v>
       </c>
       <c r="M11" s="2">
-        <v>3440000</v>
+        <v>1620000</v>
       </c>
       <c r="N11" s="2">
-        <v>3440000</v>
+        <v>1600000</v>
       </c>
       <c r="O11" s="2">
-        <v>3440000</v>
+        <v>1520000</v>
       </c>
       <c r="P11" s="2">
-        <v>3440000</v>
+        <v>1520000</v>
       </c>
       <c r="Q11" s="2">
-        <v>3340000</v>
+        <v>1520000</v>
       </c>
       <c r="R11" s="2">
-        <v>3250000</v>
+        <v>1520000</v>
       </c>
       <c r="S11" s="2">
-        <v>3150000</v>
+        <v>1560000</v>
       </c>
       <c r="T11" s="2">
-        <v>3320000</v>
+        <v>1560000</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>7410000</v>
+        <v>1630000</v>
       </c>
       <c r="C12" s="2">
-        <v>7380000</v>
+        <v>1650000</v>
       </c>
       <c r="D12" s="2">
-        <v>7230000</v>
+        <v>1650000</v>
       </c>
       <c r="E12" s="2">
-        <v>7380000</v>
+        <v>1670000</v>
       </c>
       <c r="F12" s="2">
-        <v>6890000</v>
+        <v>1670000</v>
       </c>
       <c r="G12" s="2">
-        <v>6790000</v>
+        <v>1700000</v>
       </c>
       <c r="H12" s="2">
-        <v>6780000</v>
+        <v>1780000</v>
       </c>
       <c r="I12" s="2">
-        <v>6570000</v>
+        <v>1870000</v>
       </c>
       <c r="J12" s="2">
-        <v>6470000</v>
+        <v>1870000</v>
       </c>
       <c r="K12" s="2">
-        <v>6590000</v>
+        <v>1850000</v>
       </c>
       <c r="L12" s="2">
-        <v>6390000</v>
+        <v>1940000</v>
       </c>
       <c r="M12" s="2">
-        <v>5950000</v>
+        <v>1940000</v>
       </c>
       <c r="N12" s="2">
-        <v>6000000</v>
+        <v>2010000</v>
       </c>
       <c r="O12" s="2">
-        <v>5950000</v>
+        <v>2030000</v>
       </c>
       <c r="P12" s="2">
-        <v>5900000</v>
+        <v>2030000</v>
       </c>
       <c r="Q12" s="2">
-        <v>5710000</v>
+        <v>2030000</v>
       </c>
       <c r="R12" s="2">
-        <v>5560000</v>
+        <v>2040000</v>
       </c>
       <c r="S12" s="2">
-        <v>5700000</v>
+        <v>2040000</v>
       </c>
       <c r="T12" s="2">
-        <v>5650000</v>
+        <v>2040000</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2">
-        <v>10700000</v>
+        <v>1770000</v>
       </c>
       <c r="C13" s="2">
-        <v>10700000</v>
+        <v>1770000</v>
       </c>
       <c r="D13" s="2">
-        <v>10700000</v>
+        <v>1770000</v>
       </c>
       <c r="E13" s="2">
-        <v>10600000</v>
+        <v>1330000</v>
       </c>
       <c r="F13" s="2">
-        <v>10300000</v>
+        <v>1330000</v>
       </c>
       <c r="G13" s="2">
-        <v>10300000</v>
+        <v>1800000</v>
       </c>
       <c r="H13" s="2">
-        <v>10200000</v>
+        <v>1820000</v>
       </c>
       <c r="I13" s="2">
-        <v>9960000</v>
+        <v>1820000</v>
       </c>
       <c r="J13" s="2">
-        <v>9640000</v>
+        <v>1820000</v>
       </c>
       <c r="K13" s="2">
-        <v>9530000</v>
+        <v>1820000</v>
       </c>
       <c r="L13" s="2">
-        <v>9390000</v>
+        <v>1820000</v>
       </c>
       <c r="M13" s="2">
-        <v>9350000</v>
+        <v>1820000</v>
       </c>
       <c r="N13" s="2">
-        <v>9220000</v>
+        <v>1820000</v>
       </c>
       <c r="O13" s="2">
-        <v>9050000</v>
+        <v>1820000</v>
       </c>
       <c r="P13" s="2">
-        <v>9100000</v>
+        <v>1820000</v>
       </c>
       <c r="Q13" s="2">
-        <v>8360000</v>
+        <v>1820000</v>
       </c>
       <c r="R13" s="2">
-        <v>8020000</v>
+        <v>1820000</v>
       </c>
       <c r="S13" s="2">
-        <v>7870000</v>
+        <v>1820000</v>
       </c>
       <c r="T13" s="2">
-        <v>8210000</v>
+        <v>1820000</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2">
-        <v>2940000</v>
+        <v>1810000</v>
       </c>
       <c r="C14" s="2">
-        <v>2950000</v>
+        <v>1810000</v>
       </c>
       <c r="D14" s="2">
-        <v>2970000</v>
+        <v>1730000</v>
       </c>
       <c r="E14" s="2">
-        <v>3050000</v>
+        <v>1730000</v>
       </c>
       <c r="F14" s="2">
-        <v>3140000</v>
+        <v>1620000</v>
       </c>
       <c r="G14" s="2">
-        <v>3200000</v>
+        <v>1620000</v>
       </c>
       <c r="H14" s="2">
-        <v>3200000</v>
+        <v>1570000</v>
       </c>
       <c r="I14" s="2">
-        <v>3210000</v>
+        <v>1570000</v>
       </c>
       <c r="J14" s="2">
-        <v>3250000</v>
+        <v>2030000</v>
       </c>
       <c r="K14" s="2">
-        <v>3200000</v>
+        <v>2210000</v>
       </c>
       <c r="L14" s="2">
-        <v>3150000</v>
+        <v>1840000</v>
       </c>
       <c r="M14" s="2">
-        <v>3100000</v>
+        <v>2560000</v>
       </c>
       <c r="N14" s="2">
-        <v>3050000</v>
+        <v>2900000</v>
       </c>
       <c r="O14" s="2">
-        <v>3070000</v>
+        <v>2900000</v>
       </c>
       <c r="P14" s="2">
-        <v>3050000</v>
+        <v>2900000</v>
       </c>
       <c r="Q14" s="2">
-        <v>2940000</v>
+        <v>2900000</v>
       </c>
       <c r="R14" s="2">
         <v>2900000</v>
@@ -1362,1870 +1362,1960 @@
         <v>2900000</v>
       </c>
       <c r="T14" s="2">
-        <v>2870000</v>
+        <v>2900000</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2">
-        <v>3890000</v>
+        <v>2070000</v>
       </c>
       <c r="C15" s="2">
-        <v>3890000</v>
+        <v>2070000</v>
       </c>
       <c r="D15" s="2">
-        <v>3910000</v>
+        <v>2160000</v>
       </c>
       <c r="E15" s="2">
-        <v>3910000</v>
+        <v>2160000</v>
       </c>
       <c r="F15" s="2">
-        <v>3930000</v>
+        <v>2160000</v>
       </c>
       <c r="G15" s="2">
-        <v>3930000</v>
+        <v>2160000</v>
       </c>
       <c r="H15" s="2">
-        <v>3930000</v>
+        <v>2160000</v>
       </c>
       <c r="I15" s="2">
-        <v>3930000</v>
+        <v>2160000</v>
       </c>
       <c r="J15" s="2">
-        <v>3980000</v>
+        <v>2160000</v>
       </c>
       <c r="K15" s="2">
-        <v>4110000</v>
+        <v>2450000</v>
       </c>
       <c r="L15" s="2">
-        <v>4080000</v>
+        <v>2480000</v>
       </c>
       <c r="M15" s="2">
-        <v>4080000</v>
+        <v>2750000</v>
       </c>
       <c r="N15" s="2">
-        <v>4130000</v>
+        <v>2750000</v>
       </c>
       <c r="O15" s="2">
-        <v>4110000</v>
+        <v>2750000</v>
       </c>
       <c r="P15" s="2">
-        <v>4180000</v>
+        <v>2750000</v>
       </c>
       <c r="Q15" s="2">
-        <v>4180000</v>
+        <v>2750000</v>
       </c>
       <c r="R15" s="2">
-        <v>4130000</v>
+        <v>2750000</v>
       </c>
       <c r="S15" s="2">
-        <v>4160000</v>
+        <v>2750000</v>
       </c>
       <c r="T15" s="2">
-        <v>4160000</v>
+        <v>2750000</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2">
-        <v>1630000</v>
+        <v>2150000</v>
       </c>
       <c r="C16" s="2">
-        <v>1650000</v>
+        <v>2150000</v>
       </c>
       <c r="D16" s="2">
-        <v>1650000</v>
+        <v>2150000</v>
       </c>
       <c r="E16" s="2">
-        <v>1670000</v>
+        <v>2150000</v>
       </c>
       <c r="F16" s="2">
-        <v>1670000</v>
+        <v>2150000</v>
       </c>
       <c r="G16" s="2">
-        <v>1700000</v>
+        <v>2150000</v>
       </c>
       <c r="H16" s="2">
-        <v>1780000</v>
+        <v>2150000</v>
       </c>
       <c r="I16" s="2">
-        <v>1870000</v>
+        <v>2150000</v>
       </c>
       <c r="J16" s="2">
-        <v>1870000</v>
+        <v>2150000</v>
       </c>
       <c r="K16" s="2">
-        <v>1850000</v>
+        <v>1490000</v>
       </c>
       <c r="L16" s="2">
-        <v>1940000</v>
+        <v>1440000</v>
       </c>
       <c r="M16" s="2">
-        <v>1940000</v>
+        <v>1440000</v>
       </c>
       <c r="N16" s="2">
-        <v>2010000</v>
+        <v>1440000</v>
       </c>
       <c r="O16" s="2">
-        <v>2030000</v>
+        <v>1440000</v>
       </c>
       <c r="P16" s="2">
-        <v>2030000</v>
+        <v>1440000</v>
       </c>
       <c r="Q16" s="2">
-        <v>2030000</v>
+        <v>1440000</v>
       </c>
       <c r="R16" s="2">
-        <v>2040000</v>
+        <v>1390000</v>
       </c>
       <c r="S16" s="2">
-        <v>2040000</v>
+        <v>1330000</v>
       </c>
       <c r="T16" s="2">
-        <v>2040000</v>
+        <v>1320000</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2">
-        <v>2710000</v>
+        <v>2430000</v>
       </c>
       <c r="C17" s="2">
-        <v>2740000</v>
+        <v>2430000</v>
       </c>
       <c r="D17" s="2">
-        <v>2740000</v>
+        <v>2430000</v>
       </c>
       <c r="E17" s="2">
-        <v>2740000</v>
+        <v>1620000</v>
       </c>
       <c r="F17" s="2">
-        <v>2740000</v>
+        <v>1620000</v>
       </c>
       <c r="G17" s="2">
-        <v>280000</v>
+        <v>1620000</v>
       </c>
       <c r="H17" s="2">
-        <v>280000</v>
+        <v>1620000</v>
       </c>
       <c r="I17" s="2">
-        <v>280000</v>
+        <v>1620000</v>
       </c>
       <c r="J17" s="2">
-        <v>2800000</v>
+        <v>1620000</v>
       </c>
       <c r="K17" s="2">
-        <v>2800000</v>
+        <v>1620000</v>
       </c>
       <c r="L17" s="2">
-        <v>2800000</v>
+        <v>1700000</v>
       </c>
       <c r="M17" s="2">
-        <v>2800000</v>
+        <v>1700000</v>
       </c>
       <c r="N17" s="2">
-        <v>2800000</v>
+        <v>1700000</v>
       </c>
       <c r="O17" s="2">
-        <v>2770000</v>
+        <v>1700000</v>
       </c>
       <c r="P17" s="2">
-        <v>2770000</v>
+        <v>1620000</v>
       </c>
       <c r="Q17" s="2">
-        <v>280000</v>
+        <v>1700000</v>
       </c>
       <c r="R17" s="2">
-        <v>2800000</v>
+        <v>1770000</v>
       </c>
       <c r="S17" s="2">
-        <v>2800000</v>
+        <v>1770000</v>
       </c>
       <c r="T17" s="2">
-        <v>2990000</v>
+        <v>1770000</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>4030000</v>
+        <v>2610000</v>
       </c>
       <c r="C18" s="2">
-        <v>4030000</v>
+        <v>2610000</v>
       </c>
       <c r="D18" s="2">
-        <v>4030000</v>
+        <v>2610000</v>
       </c>
       <c r="E18" s="2">
-        <v>4110000</v>
+        <v>2640000</v>
       </c>
       <c r="F18" s="2">
-        <v>4180000</v>
+        <v>2670000</v>
       </c>
       <c r="G18" s="2">
-        <v>4230000</v>
+        <v>2720000</v>
       </c>
       <c r="H18" s="2">
-        <v>4380000</v>
+        <v>2640000</v>
       </c>
       <c r="I18" s="2">
-        <v>4430000</v>
+        <v>2550000</v>
       </c>
       <c r="J18" s="2">
-        <v>4500000</v>
+        <v>2580000</v>
       </c>
       <c r="K18" s="2">
-        <v>4480000</v>
+        <v>2560000</v>
       </c>
       <c r="L18" s="2">
-        <v>4470000</v>
+        <v>2550000</v>
       </c>
       <c r="M18" s="2">
-        <v>4520000</v>
+        <v>2460000</v>
       </c>
       <c r="N18" s="2">
-        <v>4530000</v>
+        <v>2520000</v>
       </c>
       <c r="O18" s="2">
-        <v>4550000</v>
+        <v>2510000</v>
       </c>
       <c r="P18" s="2">
-        <v>4600000</v>
+        <v>2500000</v>
       </c>
       <c r="Q18" s="2">
-        <v>4530000</v>
+        <v>2480000</v>
       </c>
       <c r="R18" s="2">
-        <v>4590000</v>
+        <v>2450000</v>
       </c>
       <c r="S18" s="2">
-        <v>4620000</v>
+        <v>2450000</v>
       </c>
       <c r="T18" s="2">
-        <v>4670000</v>
+        <v>2460000</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2">
-        <v>3440000</v>
+        <v>2650000</v>
       </c>
       <c r="C19" s="2">
-        <v>3440000</v>
+        <v>2650000</v>
       </c>
       <c r="D19" s="2">
-        <v>3440000</v>
+        <v>2660000</v>
       </c>
       <c r="E19" s="2">
-        <v>3440000</v>
+        <v>2660000</v>
       </c>
       <c r="F19" s="2">
-        <v>3440000</v>
+        <v>2660000</v>
       </c>
       <c r="G19" s="2">
-        <v>3540000</v>
+        <v>2660000</v>
       </c>
       <c r="H19" s="2">
-        <v>3530000</v>
+        <v>2660000</v>
       </c>
       <c r="I19" s="2">
-        <v>3530000</v>
+        <v>2710000</v>
       </c>
       <c r="J19" s="2">
-        <v>3440000</v>
+        <v>2800000</v>
       </c>
       <c r="K19" s="2">
-        <v>3490000</v>
+        <v>2850000</v>
       </c>
       <c r="L19" s="2">
-        <v>3440000</v>
+        <v>2780000</v>
       </c>
       <c r="M19" s="2">
-        <v>3440000</v>
+        <v>2850000</v>
       </c>
       <c r="N19" s="2">
-        <v>3440000</v>
+        <v>3100000</v>
       </c>
       <c r="O19" s="2">
-        <v>3440000</v>
+        <v>3180000</v>
       </c>
       <c r="P19" s="2">
-        <v>3440000</v>
+        <v>3140000</v>
       </c>
       <c r="Q19" s="2">
         <v>3340000</v>
       </c>
       <c r="R19" s="2">
-        <v>3250000</v>
+        <v>3340000</v>
       </c>
       <c r="S19" s="2">
-        <v>3150000</v>
+        <v>3340000</v>
       </c>
       <c r="T19" s="2">
-        <v>3320000</v>
+        <v>3340000</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2">
-        <v>512000</v>
+        <v>2710000</v>
       </c>
       <c r="C20" s="2">
-        <v>512000</v>
+        <v>2740000</v>
       </c>
       <c r="D20" s="2">
-        <v>541000</v>
+        <v>2740000</v>
       </c>
       <c r="E20" s="2">
-        <v>512000</v>
+        <v>2740000</v>
       </c>
       <c r="F20" s="2">
-        <v>536000</v>
+        <v>2740000</v>
       </c>
       <c r="G20" s="2">
-        <v>488000</v>
+        <v>280000</v>
       </c>
       <c r="H20" s="2">
-        <v>488000</v>
+        <v>280000</v>
       </c>
       <c r="I20" s="2">
-        <v>512000</v>
+        <v>280000</v>
       </c>
       <c r="J20" s="2">
-        <v>512000</v>
+        <v>2800000</v>
       </c>
       <c r="K20" s="2">
-        <v>488000</v>
+        <v>2800000</v>
       </c>
       <c r="L20" s="2">
-        <v>488000</v>
+        <v>2800000</v>
       </c>
       <c r="M20" s="2">
-        <v>512000</v>
+        <v>2800000</v>
       </c>
       <c r="N20" s="2">
-        <v>472000</v>
+        <v>2800000</v>
       </c>
       <c r="O20" s="2">
-        <v>472000</v>
+        <v>2770000</v>
       </c>
       <c r="P20" s="2">
-        <v>472000</v>
+        <v>2770000</v>
       </c>
       <c r="Q20" s="2">
-        <v>472000</v>
+        <v>280000</v>
       </c>
       <c r="R20" s="2">
-        <v>472000</v>
+        <v>2800000</v>
       </c>
       <c r="S20" s="2">
-        <v>649000</v>
+        <v>2800000</v>
       </c>
       <c r="T20" s="2">
-        <v>830000</v>
+        <v>2990000</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>1420000</v>
+        <v>2750000</v>
       </c>
       <c r="C21" s="2">
-        <v>1420000</v>
+        <v>2780000</v>
       </c>
       <c r="D21" s="2">
-        <v>1420000</v>
+        <v>2800000</v>
       </c>
       <c r="E21" s="2">
-        <v>1420000</v>
+        <v>2800000</v>
       </c>
       <c r="F21" s="2">
-        <v>1420000</v>
+        <v>2800000</v>
       </c>
       <c r="G21" s="2">
-        <v>1420000</v>
+        <v>2800000</v>
       </c>
       <c r="H21" s="2">
-        <v>1420000</v>
+        <v>2800000</v>
       </c>
       <c r="I21" s="2">
-        <v>1420000</v>
+        <v>2800000</v>
       </c>
       <c r="J21" s="2">
-        <v>1420000</v>
+        <v>2800000</v>
       </c>
       <c r="K21" s="2">
-        <v>1420000</v>
+        <v>2750000</v>
       </c>
       <c r="L21" s="2">
-        <v>1460000</v>
+        <v>2750000</v>
       </c>
       <c r="M21" s="2">
-        <v>1510000</v>
+        <v>2750000</v>
       </c>
       <c r="N21" s="2">
-        <v>1460000</v>
+        <v>2750000</v>
       </c>
       <c r="O21" s="2">
-        <v>1510000</v>
+        <v>2750000</v>
       </c>
       <c r="P21" s="2">
-        <v>1560000</v>
+        <v>2750000</v>
       </c>
       <c r="Q21" s="2">
-        <v>1560000</v>
+        <v>2750000</v>
       </c>
       <c r="R21" s="2">
-        <v>1560000</v>
+        <v>2750000</v>
       </c>
       <c r="S21" s="2">
-        <v>1560000</v>
+        <v>2750000</v>
       </c>
       <c r="T21" s="2">
-        <v>1560000</v>
+        <v>2750000</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2">
-        <v>2750000</v>
+        <v>2940000</v>
       </c>
       <c r="C22" s="2">
-        <v>2780000</v>
+        <v>2950000</v>
       </c>
       <c r="D22" s="2">
-        <v>2800000</v>
+        <v>2970000</v>
       </c>
       <c r="E22" s="2">
-        <v>2800000</v>
+        <v>3050000</v>
       </c>
       <c r="F22" s="2">
-        <v>2800000</v>
+        <v>3140000</v>
       </c>
       <c r="G22" s="2">
-        <v>2800000</v>
+        <v>3200000</v>
       </c>
       <c r="H22" s="2">
-        <v>2800000</v>
+        <v>3200000</v>
       </c>
       <c r="I22" s="2">
-        <v>2800000</v>
+        <v>3210000</v>
       </c>
       <c r="J22" s="2">
-        <v>2800000</v>
+        <v>3250000</v>
       </c>
       <c r="K22" s="2">
-        <v>2750000</v>
+        <v>3200000</v>
       </c>
       <c r="L22" s="2">
-        <v>2750000</v>
+        <v>3150000</v>
       </c>
       <c r="M22" s="2">
-        <v>2750000</v>
+        <v>3100000</v>
       </c>
       <c r="N22" s="2">
-        <v>2750000</v>
+        <v>3050000</v>
       </c>
       <c r="O22" s="2">
-        <v>2750000</v>
+        <v>3070000</v>
       </c>
       <c r="P22" s="2">
-        <v>2750000</v>
+        <v>3050000</v>
       </c>
       <c r="Q22" s="2">
-        <v>2750000</v>
+        <v>2940000</v>
       </c>
       <c r="R22" s="2">
-        <v>2750000</v>
+        <v>2900000</v>
       </c>
       <c r="S22" s="2">
-        <v>2750000</v>
+        <v>2900000</v>
       </c>
       <c r="T22" s="2">
-        <v>2750000</v>
+        <v>2870000</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B23" s="2">
-        <v>7770000</v>
+        <v>3300000</v>
       </c>
       <c r="C23" s="2">
-        <v>7770000</v>
+        <v>3340000</v>
       </c>
       <c r="D23" s="2">
-        <v>7770000</v>
+        <v>3340000</v>
       </c>
       <c r="E23" s="2">
-        <v>7770000</v>
+        <v>3390000</v>
       </c>
       <c r="F23" s="2">
-        <v>7770000</v>
+        <v>3440000</v>
       </c>
       <c r="G23" s="2">
-        <v>7770000</v>
+        <v>3440000</v>
       </c>
       <c r="H23" s="2">
-        <v>7770000</v>
+        <v>3540000</v>
       </c>
       <c r="I23" s="2">
-        <v>7770000</v>
+        <v>3590000</v>
       </c>
       <c r="J23" s="2">
-        <v>7770000</v>
+        <v>3630000</v>
       </c>
       <c r="K23" s="2">
-        <v>7770000</v>
+        <v>3640000</v>
       </c>
       <c r="L23" s="2">
-        <v>7770000</v>
+        <v>3690000</v>
       </c>
       <c r="M23" s="2">
-        <v>7770000</v>
+        <v>3720000</v>
       </c>
       <c r="N23" s="2">
-        <v>7770000</v>
+        <v>3730000</v>
       </c>
       <c r="O23" s="2">
-        <v>8780000</v>
+        <v>3740000</v>
       </c>
       <c r="P23" s="2">
-        <v>9810000</v>
+        <v>3790000</v>
       </c>
       <c r="Q23" s="2">
-        <v>9180000</v>
+        <v>3830000</v>
       </c>
       <c r="R23" s="2">
-        <v>9180000</v>
+        <v>3890000</v>
       </c>
       <c r="S23" s="2">
-        <v>9180000</v>
+        <v>3890000</v>
       </c>
       <c r="T23" s="2">
-        <v>9180000</v>
+        <v>3900000</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2">
-        <v>8240000</v>
+        <v>3300000</v>
       </c>
       <c r="C24" s="2">
-        <v>8240000</v>
+        <v>3300000</v>
       </c>
       <c r="D24" s="2">
-        <v>8240000</v>
+        <v>3300000</v>
       </c>
       <c r="E24" s="2">
-        <v>8720000</v>
+        <v>3020000</v>
       </c>
       <c r="F24" s="2">
-        <v>8720000</v>
+        <v>2750000</v>
       </c>
       <c r="G24" s="2">
-        <v>7160000</v>
+        <v>2460000</v>
       </c>
       <c r="H24" s="2">
-        <v>7620000</v>
+        <v>2460000</v>
       </c>
       <c r="I24" s="2">
-        <v>8660000</v>
+        <v>2980000</v>
       </c>
       <c r="J24" s="2">
-        <v>8690000</v>
+        <v>2980000</v>
       </c>
       <c r="K24" s="2">
-        <v>8720000</v>
+        <v>2980000</v>
       </c>
       <c r="L24" s="2">
-        <v>8720000</v>
+        <v>2980000</v>
       </c>
       <c r="M24" s="2">
-        <v>8410000</v>
+        <v>2160000</v>
       </c>
       <c r="N24" s="2">
-        <v>8660000</v>
+        <v>2160000</v>
       </c>
       <c r="O24" s="2">
-        <v>8660000</v>
+        <v>2160000</v>
       </c>
       <c r="P24" s="2">
-        <v>8690000</v>
+        <v>2160000</v>
       </c>
       <c r="Q24" s="2">
-        <v>8720000</v>
+        <v>2160000</v>
       </c>
       <c r="R24" s="2">
-        <v>8690000</v>
+        <v>2160000</v>
       </c>
       <c r="S24" s="2">
-        <v>8660000</v>
+        <v>2160000</v>
       </c>
       <c r="T24" s="2">
-        <v>8310000</v>
+        <v>2160000</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2">
-        <v>9820000</v>
+        <v>3440000</v>
       </c>
       <c r="C25" s="2">
-        <v>9820000</v>
+        <v>3440000</v>
       </c>
       <c r="D25" s="2">
-        <v>9820000</v>
+        <v>3440000</v>
       </c>
       <c r="E25" s="2">
-        <v>9820000</v>
+        <v>3440000</v>
       </c>
       <c r="F25" s="2">
-        <v>9820000</v>
+        <v>3440000</v>
       </c>
       <c r="G25" s="2">
-        <v>9820000</v>
+        <v>3540000</v>
       </c>
       <c r="H25" s="2">
-        <v>9820000</v>
+        <v>3530000</v>
       </c>
       <c r="I25" s="2">
-        <v>9830000</v>
+        <v>3530000</v>
       </c>
       <c r="J25" s="2">
-        <v>12200000</v>
+        <v>3440000</v>
       </c>
       <c r="K25" s="2">
-        <v>12200000</v>
+        <v>3490000</v>
       </c>
       <c r="L25" s="2">
-        <v>14500000</v>
+        <v>3440000</v>
       </c>
       <c r="M25" s="2">
-        <v>13700000</v>
+        <v>3440000</v>
       </c>
       <c r="N25" s="2">
-        <v>14100000</v>
+        <v>3440000</v>
       </c>
       <c r="O25" s="2">
-        <v>14100000</v>
+        <v>3440000</v>
       </c>
       <c r="P25" s="2">
-        <v>14100000</v>
+        <v>3440000</v>
       </c>
       <c r="Q25" s="2">
-        <v>14100000</v>
+        <v>3340000</v>
       </c>
       <c r="R25" s="2">
-        <v>13700000</v>
+        <v>3250000</v>
       </c>
       <c r="S25" s="2">
-        <v>14100000</v>
+        <v>3150000</v>
       </c>
       <c r="T25" s="2">
-        <v>14100000</v>
+        <v>3320000</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2">
-        <v>1180000</v>
+        <v>3440000</v>
       </c>
       <c r="C26" s="2">
-        <v>1180000</v>
+        <v>3440000</v>
       </c>
       <c r="D26" s="2">
-        <v>1180000</v>
+        <v>3440000</v>
       </c>
       <c r="E26" s="2">
-        <v>1180000</v>
+        <v>3440000</v>
       </c>
       <c r="F26" s="2">
-        <v>1180000</v>
+        <v>3440000</v>
       </c>
       <c r="G26" s="2">
-        <v>1180000</v>
+        <v>3540000</v>
       </c>
       <c r="H26" s="2">
-        <v>1180000</v>
+        <v>3530000</v>
       </c>
       <c r="I26" s="2">
-        <v>1180000</v>
+        <v>3530000</v>
       </c>
       <c r="J26" s="2">
-        <v>1130000</v>
+        <v>3440000</v>
       </c>
       <c r="K26" s="2">
-        <v>1060000</v>
+        <v>3490000</v>
       </c>
       <c r="L26" s="2">
-        <v>1060000</v>
+        <v>3440000</v>
       </c>
       <c r="M26" s="2">
-        <v>1030000</v>
+        <v>3440000</v>
       </c>
       <c r="N26" s="2">
-        <v>1080000</v>
+        <v>3440000</v>
       </c>
       <c r="O26" s="2">
-        <v>1080000</v>
+        <v>3440000</v>
       </c>
       <c r="P26" s="2">
-        <v>1060000</v>
+        <v>3440000</v>
       </c>
       <c r="Q26" s="2">
-        <v>1030000</v>
+        <v>3340000</v>
       </c>
       <c r="R26" s="2">
-        <v>1010000</v>
+        <v>3250000</v>
       </c>
       <c r="S26" s="2">
-        <v>984000</v>
+        <v>3150000</v>
       </c>
       <c r="T26" s="2">
-        <v>1080000</v>
+        <v>3320000</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2">
-        <v>1460000</v>
+        <v>3640000</v>
       </c>
       <c r="C27" s="2">
-        <v>1460000</v>
+        <v>3640000</v>
       </c>
       <c r="D27" s="2">
-        <v>1470000</v>
+        <v>3640000</v>
       </c>
       <c r="E27" s="2">
-        <v>1480000</v>
+        <v>3640000</v>
       </c>
       <c r="F27" s="2">
-        <v>1480000</v>
+        <v>3640000</v>
       </c>
       <c r="G27" s="2">
-        <v>1470000</v>
+        <v>3640000</v>
       </c>
       <c r="H27" s="2">
-        <v>1470000</v>
+        <v>3640000</v>
       </c>
       <c r="I27" s="2">
-        <v>1520000</v>
+        <v>3640000</v>
       </c>
       <c r="J27" s="2">
-        <v>1590000</v>
+        <v>3740000</v>
       </c>
       <c r="K27" s="2">
-        <v>1760000</v>
+        <v>3740000</v>
       </c>
       <c r="L27" s="2">
-        <v>1760000</v>
+        <v>3740000</v>
       </c>
       <c r="M27" s="2">
-        <v>1680000</v>
+        <v>3740000</v>
       </c>
       <c r="N27" s="2">
-        <v>1760000</v>
+        <v>3740000</v>
       </c>
       <c r="O27" s="2">
-        <v>1770000</v>
+        <v>3740000</v>
       </c>
       <c r="P27" s="2">
-        <v>1770000</v>
+        <v>3740000</v>
       </c>
       <c r="Q27" s="2">
-        <v>1770000</v>
+        <v>3570000</v>
       </c>
       <c r="R27" s="2">
-        <v>1570000</v>
+        <v>3380000</v>
       </c>
       <c r="S27" s="2">
-        <v>1590000</v>
+        <v>3250000</v>
       </c>
       <c r="T27" s="2">
-        <v>1570000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2">
-        <v>850000</v>
+        <v>3660000</v>
       </c>
       <c r="C28" s="2">
-        <v>860000</v>
+        <v>3660000</v>
       </c>
       <c r="D28" s="2">
-        <v>1180000</v>
+        <v>3730000</v>
       </c>
       <c r="E28" s="2">
-        <v>1180000</v>
+        <v>3730000</v>
       </c>
       <c r="F28" s="2">
-        <v>1270000</v>
+        <v>3790000</v>
       </c>
       <c r="G28" s="2">
-        <v>1180000</v>
+        <v>3790000</v>
       </c>
       <c r="H28" s="2">
-        <v>1180000</v>
+        <v>3770000</v>
       </c>
       <c r="I28" s="2">
-        <v>1180000</v>
+        <v>3840000</v>
       </c>
       <c r="J28" s="2">
-        <v>1180000</v>
+        <v>3740000</v>
       </c>
       <c r="K28" s="2">
-        <v>1180000</v>
+        <v>3740000</v>
       </c>
       <c r="L28" s="2">
-        <v>1100000</v>
+        <v>3840000</v>
       </c>
       <c r="M28" s="2">
-        <v>1180000</v>
+        <v>3730000</v>
       </c>
       <c r="N28" s="2">
-        <v>1180000</v>
+        <v>3840000</v>
       </c>
       <c r="O28" s="2">
-        <v>1100000</v>
+        <v>3840000</v>
       </c>
       <c r="P28" s="2">
-        <v>1100000</v>
+        <v>3840000</v>
       </c>
       <c r="Q28" s="2">
-        <v>1230000</v>
+        <v>3860000</v>
       </c>
       <c r="R28" s="2">
-        <v>1370000</v>
+        <v>3930000</v>
       </c>
       <c r="S28" s="2">
-        <v>1940000</v>
+        <v>4110000</v>
       </c>
       <c r="T28" s="2">
-        <v>1940000</v>
+        <v>4180000</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B29" s="4">
-        <v>8360000</v>
+        <v>3890000</v>
       </c>
       <c r="C29" s="4">
-        <v>8360000</v>
+        <v>3890000</v>
       </c>
       <c r="D29" s="4">
-        <v>8360000</v>
+        <v>3910000</v>
       </c>
       <c r="E29" s="4">
-        <v>8360000</v>
+        <v>3910000</v>
       </c>
       <c r="F29" s="4">
-        <v>8360000</v>
+        <v>3930000</v>
       </c>
       <c r="G29" s="4">
-        <v>7860000</v>
+        <v>3930000</v>
       </c>
       <c r="H29" s="4">
-        <v>7620000</v>
+        <v>3930000</v>
       </c>
       <c r="I29" s="4">
-        <v>7770000</v>
+        <v>3930000</v>
       </c>
       <c r="J29" s="4">
-        <v>7480000</v>
+        <v>3980000</v>
       </c>
       <c r="K29" s="4">
-        <v>7770000</v>
+        <v>4110000</v>
       </c>
       <c r="L29" s="4">
-        <v>7770000</v>
+        <v>4080000</v>
       </c>
       <c r="M29" s="4">
-        <v>7620000</v>
+        <v>4080000</v>
       </c>
       <c r="N29" s="4">
-        <v>7480000</v>
+        <v>4130000</v>
       </c>
       <c r="O29" s="4">
-        <v>7620000</v>
+        <v>4110000</v>
       </c>
       <c r="P29" s="4">
-        <v>7770000</v>
+        <v>4180000</v>
       </c>
       <c r="Q29" s="4">
-        <v>7480000</v>
+        <v>4180000</v>
       </c>
       <c r="R29" s="4">
-        <v>7480000</v>
+        <v>4130000</v>
       </c>
       <c r="S29" s="4">
-        <v>7480000</v>
+        <v>4160000</v>
       </c>
       <c r="T29" s="4">
-        <v>7480000</v>
+        <v>4160000</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B30" s="4">
-        <v>1230000</v>
+        <v>3890000</v>
       </c>
       <c r="C30" s="4">
-        <v>1230000</v>
+        <v>3890000</v>
       </c>
       <c r="D30" s="4">
-        <v>1250000</v>
+        <v>3760000</v>
       </c>
       <c r="E30" s="4">
-        <v>1250000</v>
+        <v>3760000</v>
       </c>
       <c r="F30" s="4">
-        <v>1280000</v>
+        <v>3300000</v>
       </c>
       <c r="G30" s="4">
-        <v>1720000</v>
+        <v>3640000</v>
       </c>
       <c r="H30" s="4">
-        <v>1830000</v>
+        <v>3760000</v>
       </c>
       <c r="I30" s="4">
-        <v>1720000</v>
+        <v>3760000</v>
       </c>
       <c r="J30" s="4">
-        <v>1830000</v>
+        <v>3640000</v>
       </c>
       <c r="K30" s="4">
-        <v>1790000</v>
+        <v>3640000</v>
       </c>
       <c r="L30" s="4">
-        <v>1610000</v>
+        <v>3890000</v>
       </c>
       <c r="M30" s="4">
-        <v>1780000</v>
+        <v>3890000</v>
       </c>
       <c r="N30" s="4">
-        <v>1780000</v>
+        <v>3760000</v>
       </c>
       <c r="O30" s="4">
-        <v>1580000</v>
+        <v>3810000</v>
       </c>
       <c r="P30" s="4">
-        <v>1580000</v>
+        <v>3690000</v>
       </c>
       <c r="Q30" s="4">
-        <v>1550000</v>
+        <v>3340000</v>
       </c>
       <c r="R30" s="4">
-        <v>1290000</v>
+        <v>3810000</v>
       </c>
       <c r="S30" s="4">
-        <v>1030000</v>
+        <v>3810000</v>
       </c>
       <c r="T30" s="4">
-        <v>1030000</v>
+        <v>3340000</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B31" s="4">
-        <v>1380000</v>
+        <v>4030000</v>
       </c>
       <c r="C31" s="4">
-        <v>1380000</v>
+        <v>4030000</v>
       </c>
       <c r="D31" s="4">
-        <v>1380000</v>
+        <v>4030000</v>
       </c>
       <c r="E31" s="4">
-        <v>1380000</v>
+        <v>4110000</v>
       </c>
       <c r="F31" s="4">
-        <v>1380000</v>
+        <v>4180000</v>
       </c>
       <c r="G31" s="4">
-        <v>1380000</v>
+        <v>4230000</v>
       </c>
       <c r="H31" s="4">
-        <v>1330000</v>
+        <v>4380000</v>
       </c>
       <c r="I31" s="4">
-        <v>1380000</v>
+        <v>4430000</v>
       </c>
       <c r="J31" s="4">
-        <v>1380000</v>
+        <v>4500000</v>
       </c>
       <c r="K31" s="4">
-        <v>1380000</v>
+        <v>4480000</v>
       </c>
       <c r="L31" s="4">
-        <v>1380000</v>
+        <v>4470000</v>
       </c>
       <c r="M31" s="4">
-        <v>1380000</v>
+        <v>4520000</v>
       </c>
       <c r="N31" s="4">
-        <v>1380000</v>
+        <v>4530000</v>
       </c>
       <c r="O31" s="4">
-        <v>1380000</v>
+        <v>4550000</v>
       </c>
       <c r="P31" s="4">
-        <v>1300000</v>
+        <v>4600000</v>
       </c>
       <c r="Q31" s="4">
-        <v>1300000</v>
+        <v>4530000</v>
       </c>
       <c r="R31" s="4">
-        <v>1210000</v>
+        <v>4590000</v>
       </c>
       <c r="S31" s="4">
-        <v>1180000</v>
+        <v>4620000</v>
       </c>
       <c r="T31" s="4">
-        <v>1180000</v>
+        <v>4670000</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B32" s="4">
-        <v>1770000</v>
+        <v>4120000</v>
       </c>
       <c r="C32" s="4">
-        <v>1770000</v>
+        <v>4130000</v>
       </c>
       <c r="D32" s="4">
-        <v>1770000</v>
+        <v>4130000</v>
       </c>
       <c r="E32" s="4">
-        <v>1330000</v>
+        <v>4120000</v>
       </c>
       <c r="F32" s="4">
-        <v>1330000</v>
+        <v>4250000</v>
       </c>
       <c r="G32" s="4">
-        <v>1800000</v>
+        <v>4250000</v>
       </c>
       <c r="H32" s="4">
-        <v>1820000</v>
+        <v>4380000</v>
       </c>
       <c r="I32" s="4">
-        <v>1820000</v>
+        <v>4430000</v>
       </c>
       <c r="J32" s="4">
-        <v>1820000</v>
+        <v>5020000</v>
       </c>
       <c r="K32" s="4">
-        <v>1820000</v>
+        <v>5020000</v>
       </c>
       <c r="L32" s="4">
-        <v>1820000</v>
+        <v>5020000</v>
       </c>
       <c r="M32" s="4">
-        <v>1820000</v>
+        <v>4700000</v>
       </c>
       <c r="N32" s="4">
-        <v>1820000</v>
+        <v>4700000</v>
       </c>
       <c r="O32" s="4">
-        <v>1820000</v>
+        <v>4700000</v>
       </c>
       <c r="P32" s="4">
-        <v>1820000</v>
+        <v>4700000</v>
       </c>
       <c r="Q32" s="4">
-        <v>1820000</v>
+        <v>4700000</v>
       </c>
       <c r="R32" s="4">
-        <v>1820000</v>
+        <v>5020000</v>
       </c>
       <c r="S32" s="4">
-        <v>1820000</v>
+        <v>5020000</v>
       </c>
       <c r="T32" s="4">
-        <v>1820000</v>
+        <v>5020000</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B33" s="4">
-        <v>1460000</v>
+        <v>4630000</v>
       </c>
       <c r="C33" s="4">
-        <v>1460000</v>
+        <v>4630000</v>
       </c>
       <c r="D33" s="4">
-        <v>1460000</v>
+        <v>4630000</v>
       </c>
       <c r="E33" s="4">
-        <v>1460000</v>
+        <v>4630000</v>
       </c>
       <c r="F33" s="4">
-        <v>1460000</v>
+        <v>4630000</v>
       </c>
       <c r="G33" s="4">
-        <v>1560000</v>
+        <v>4630000</v>
       </c>
       <c r="H33" s="4">
-        <v>1560000</v>
+        <v>4630000</v>
       </c>
       <c r="I33" s="4">
-        <v>1560000</v>
+        <v>4630000</v>
       </c>
       <c r="J33" s="4">
-        <v>1560000</v>
+        <v>4630000</v>
       </c>
       <c r="K33" s="4">
-        <v>1560000</v>
+        <v>8610000</v>
       </c>
       <c r="L33" s="4">
-        <v>1560000</v>
+        <v>8610000</v>
       </c>
       <c r="M33" s="4">
-        <v>1560000</v>
+        <v>8610000</v>
       </c>
       <c r="N33" s="4">
-        <v>1660000</v>
+        <v>8610000</v>
       </c>
       <c r="O33" s="4">
-        <v>1660000</v>
+        <v>4650000</v>
       </c>
       <c r="P33" s="4">
-        <v>1660000</v>
+        <v>4650000</v>
       </c>
       <c r="Q33" s="4">
-        <v>1750000</v>
+        <v>8610000</v>
       </c>
       <c r="R33" s="4">
-        <v>1440000</v>
+        <v>7570000</v>
       </c>
       <c r="S33" s="4">
-        <v>1020000</v>
+        <v>7570000</v>
       </c>
       <c r="T33" s="4">
-        <v>1020000</v>
+        <v>7570000</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B34" s="4">
-        <v>1070000</v>
+        <v>5120000</v>
       </c>
       <c r="C34" s="4">
-        <v>1070000</v>
+        <v>5120000</v>
       </c>
       <c r="D34" s="4">
-        <v>1070000</v>
+        <v>5160000</v>
       </c>
       <c r="E34" s="4">
-        <v>1070000</v>
+        <v>5210000</v>
       </c>
       <c r="F34" s="4">
-        <v>1150000</v>
+        <v>5260000</v>
       </c>
       <c r="G34" s="4">
-        <v>1150000</v>
+        <v>5290000</v>
       </c>
       <c r="H34" s="4">
-        <v>1150000</v>
+        <v>5300000</v>
       </c>
       <c r="I34" s="4">
-        <v>1230000</v>
+        <v>5360000</v>
       </c>
       <c r="J34" s="4">
-        <v>1230000</v>
+        <v>5370000</v>
       </c>
       <c r="K34" s="4">
-        <v>1230000</v>
+        <v>5400000</v>
       </c>
       <c r="L34" s="4">
-        <v>1230000</v>
+        <v>5400000</v>
       </c>
       <c r="M34" s="4">
-        <v>1230000</v>
+        <v>5410000</v>
       </c>
       <c r="N34" s="4">
-        <v>1390000</v>
+        <v>5410000</v>
       </c>
       <c r="O34" s="4">
-        <v>1390000</v>
+        <v>5450000</v>
       </c>
       <c r="P34" s="4">
-        <v>1390000</v>
+        <v>5500000</v>
       </c>
       <c r="Q34" s="4">
-        <v>1150000</v>
+        <v>5560000</v>
       </c>
       <c r="R34" s="4">
-        <v>1310000</v>
+        <v>5610000</v>
       </c>
       <c r="S34" s="4">
-        <v>1630000</v>
+        <v>5660000</v>
       </c>
       <c r="T34" s="4">
-        <v>1590000</v>
+        <v>5660000</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4">
-        <v>3660000</v>
+        <v>5160000</v>
       </c>
       <c r="C35" s="4">
-        <v>3660000</v>
+        <v>5160000</v>
       </c>
       <c r="D35" s="4">
-        <v>3730000</v>
+        <v>5160000</v>
       </c>
       <c r="E35" s="4">
-        <v>3730000</v>
+        <v>5160000</v>
       </c>
       <c r="F35" s="4">
-        <v>3790000</v>
+        <v>5160000</v>
       </c>
       <c r="G35" s="4">
-        <v>3790000</v>
+        <v>5160000</v>
       </c>
       <c r="H35" s="4">
-        <v>3770000</v>
+        <v>5160000</v>
       </c>
       <c r="I35" s="4">
-        <v>3840000</v>
+        <v>5160000</v>
       </c>
       <c r="J35" s="4">
-        <v>3740000</v>
+        <v>5160000</v>
       </c>
       <c r="K35" s="4">
-        <v>3740000</v>
+        <v>5160000</v>
       </c>
       <c r="L35" s="4">
-        <v>3840000</v>
+        <v>5160000</v>
       </c>
       <c r="M35" s="4">
-        <v>3730000</v>
+        <v>5160000</v>
       </c>
       <c r="N35" s="4">
-        <v>3840000</v>
+        <v>5210000</v>
       </c>
       <c r="O35" s="4">
-        <v>3840000</v>
+        <v>5310000</v>
       </c>
       <c r="P35" s="4">
-        <v>3840000</v>
+        <v>5360000</v>
       </c>
       <c r="Q35" s="4">
-        <v>3860000</v>
+        <v>5360000</v>
       </c>
       <c r="R35" s="4">
-        <v>3930000</v>
+        <v>5310000</v>
       </c>
       <c r="S35" s="4">
-        <v>4110000</v>
+        <v>5400000</v>
       </c>
       <c r="T35" s="4">
-        <v>4180000</v>
+        <v>5460000</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B36" s="4">
-        <v>2610000</v>
+        <v>5690000</v>
       </c>
       <c r="C36" s="4">
-        <v>2610000</v>
+        <v>5690000</v>
       </c>
       <c r="D36" s="4">
-        <v>2610000</v>
+        <v>5690000</v>
       </c>
       <c r="E36" s="4">
-        <v>2640000</v>
+        <v>5690000</v>
       </c>
       <c r="F36" s="4">
-        <v>2670000</v>
+        <v>5690000</v>
       </c>
       <c r="G36" s="4">
-        <v>2720000</v>
+        <v>5690000</v>
       </c>
       <c r="H36" s="4">
-        <v>2640000</v>
+        <v>5690000</v>
       </c>
       <c r="I36" s="4">
-        <v>2550000</v>
+        <v>5830000</v>
       </c>
       <c r="J36" s="4">
-        <v>2580000</v>
+        <v>5800000</v>
       </c>
       <c r="K36" s="4">
-        <v>2560000</v>
+        <v>5700000</v>
       </c>
       <c r="L36" s="4">
-        <v>2550000</v>
+        <v>5690000</v>
       </c>
       <c r="M36" s="4">
-        <v>2460000</v>
+        <v>5690000</v>
       </c>
       <c r="N36" s="4">
-        <v>2520000</v>
+        <v>5800000</v>
       </c>
       <c r="O36" s="4">
-        <v>2510000</v>
+        <v>5800000</v>
       </c>
       <c r="P36" s="4">
-        <v>2500000</v>
+        <v>5700000</v>
       </c>
       <c r="Q36" s="4">
-        <v>2480000</v>
+        <v>5750000</v>
       </c>
       <c r="R36" s="4">
-        <v>2450000</v>
+        <v>5610000</v>
       </c>
       <c r="S36" s="4">
-        <v>2450000</v>
+        <v>5610000</v>
       </c>
       <c r="T36" s="4">
-        <v>2460000</v>
+        <v>5610000</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B37" s="4">
-        <v>1810000</v>
+        <v>7410000</v>
       </c>
       <c r="C37" s="4">
-        <v>1810000</v>
+        <v>7380000</v>
       </c>
       <c r="D37" s="4">
-        <v>1730000</v>
+        <v>7230000</v>
       </c>
       <c r="E37" s="4">
-        <v>1730000</v>
+        <v>7380000</v>
       </c>
       <c r="F37" s="4">
-        <v>1620000</v>
+        <v>6890000</v>
       </c>
       <c r="G37" s="4">
-        <v>1620000</v>
+        <v>6790000</v>
       </c>
       <c r="H37" s="4">
-        <v>1570000</v>
+        <v>6780000</v>
       </c>
       <c r="I37" s="4">
-        <v>1570000</v>
+        <v>6570000</v>
       </c>
       <c r="J37" s="4">
-        <v>2030000</v>
+        <v>6470000</v>
       </c>
       <c r="K37" s="4">
-        <v>2210000</v>
+        <v>6590000</v>
       </c>
       <c r="L37" s="4">
-        <v>1840000</v>
+        <v>6390000</v>
       </c>
       <c r="M37" s="4">
-        <v>2560000</v>
+        <v>5950000</v>
       </c>
       <c r="N37" s="4">
-        <v>2900000</v>
+        <v>6000000</v>
       </c>
       <c r="O37" s="4">
-        <v>2900000</v>
+        <v>5950000</v>
       </c>
       <c r="P37" s="4">
-        <v>2900000</v>
+        <v>5900000</v>
       </c>
       <c r="Q37" s="4">
-        <v>2900000</v>
+        <v>5710000</v>
       </c>
       <c r="R37" s="4">
-        <v>2900000</v>
+        <v>5560000</v>
       </c>
       <c r="S37" s="4">
-        <v>2900000</v>
+        <v>5700000</v>
       </c>
       <c r="T37" s="4">
-        <v>2900000</v>
+        <v>5650000</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B38" s="4">
-        <v>3890000</v>
+        <v>7770000</v>
       </c>
       <c r="C38" s="4">
-        <v>3890000</v>
+        <v>7770000</v>
       </c>
       <c r="D38" s="4">
-        <v>3760000</v>
+        <v>7770000</v>
       </c>
       <c r="E38" s="4">
-        <v>3760000</v>
+        <v>7770000</v>
       </c>
       <c r="F38" s="4">
-        <v>3300000</v>
+        <v>7770000</v>
       </c>
       <c r="G38" s="4">
-        <v>3640000</v>
+        <v>7770000</v>
       </c>
       <c r="H38" s="4">
-        <v>3760000</v>
+        <v>7770000</v>
       </c>
       <c r="I38" s="4">
-        <v>3760000</v>
+        <v>7770000</v>
       </c>
       <c r="J38" s="4">
-        <v>3640000</v>
+        <v>7770000</v>
       </c>
       <c r="K38" s="4">
-        <v>3640000</v>
+        <v>7770000</v>
       </c>
       <c r="L38" s="4">
-        <v>3890000</v>
+        <v>7770000</v>
       </c>
       <c r="M38" s="4">
-        <v>3890000</v>
+        <v>7770000</v>
       </c>
       <c r="N38" s="4">
-        <v>3760000</v>
+        <v>7770000</v>
       </c>
       <c r="O38" s="4">
-        <v>3810000</v>
+        <v>8780000</v>
       </c>
       <c r="P38" s="4">
-        <v>3690000</v>
+        <v>9810000</v>
       </c>
       <c r="Q38" s="4">
-        <v>3340000</v>
+        <v>9180000</v>
       </c>
       <c r="R38" s="4">
-        <v>3810000</v>
+        <v>9180000</v>
       </c>
       <c r="S38" s="4">
-        <v>3810000</v>
+        <v>9180000</v>
       </c>
       <c r="T38" s="4">
-        <v>3340000</v>
+        <v>9180000</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B39" s="4">
-        <v>2070000</v>
+        <v>8240000</v>
       </c>
       <c r="C39" s="4">
-        <v>2070000</v>
+        <v>8240000</v>
       </c>
       <c r="D39" s="4">
-        <v>2160000</v>
+        <v>8240000</v>
       </c>
       <c r="E39" s="4">
-        <v>2160000</v>
+        <v>8720000</v>
       </c>
       <c r="F39" s="4">
-        <v>2160000</v>
+        <v>8720000</v>
       </c>
       <c r="G39" s="4">
-        <v>2160000</v>
+        <v>7160000</v>
       </c>
       <c r="H39" s="4">
-        <v>2160000</v>
+        <v>7620000</v>
       </c>
       <c r="I39" s="4">
-        <v>2160000</v>
+        <v>8660000</v>
       </c>
       <c r="J39" s="4">
-        <v>2160000</v>
+        <v>8690000</v>
       </c>
       <c r="K39" s="4">
-        <v>2450000</v>
+        <v>8720000</v>
       </c>
       <c r="L39" s="4">
-        <v>2480000</v>
+        <v>8720000</v>
       </c>
       <c r="M39" s="4">
-        <v>2750000</v>
+        <v>8410000</v>
       </c>
       <c r="N39" s="4">
-        <v>2750000</v>
+        <v>8660000</v>
       </c>
       <c r="O39" s="4">
-        <v>2750000</v>
+        <v>8660000</v>
       </c>
       <c r="P39" s="4">
-        <v>2750000</v>
+        <v>8690000</v>
       </c>
       <c r="Q39" s="4">
-        <v>2750000</v>
+        <v>8720000</v>
       </c>
       <c r="R39" s="4">
-        <v>2750000</v>
+        <v>8690000</v>
       </c>
       <c r="S39" s="4">
-        <v>2750000</v>
+        <v>8660000</v>
       </c>
       <c r="T39" s="4">
-        <v>2750000</v>
+        <v>8310000</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B40" s="4">
-        <v>2430000</v>
+        <v>8360000</v>
       </c>
       <c r="C40" s="4">
-        <v>2430000</v>
+        <v>8360000</v>
       </c>
       <c r="D40" s="4">
-        <v>2430000</v>
+        <v>8360000</v>
       </c>
       <c r="E40" s="4">
-        <v>1620000</v>
+        <v>8360000</v>
       </c>
       <c r="F40" s="4">
-        <v>1620000</v>
+        <v>8360000</v>
       </c>
       <c r="G40" s="4">
-        <v>1620000</v>
+        <v>7860000</v>
       </c>
       <c r="H40" s="4">
-        <v>1620000</v>
+        <v>7620000</v>
       </c>
       <c r="I40" s="4">
-        <v>1620000</v>
+        <v>7770000</v>
       </c>
       <c r="J40" s="4">
-        <v>1620000</v>
+        <v>7480000</v>
       </c>
       <c r="K40" s="4">
-        <v>1620000</v>
+        <v>7770000</v>
       </c>
       <c r="L40" s="4">
-        <v>1700000</v>
+        <v>7770000</v>
       </c>
       <c r="M40" s="4">
-        <v>1700000</v>
+        <v>7620000</v>
       </c>
       <c r="N40" s="4">
-        <v>1700000</v>
+        <v>7480000</v>
       </c>
       <c r="O40" s="4">
-        <v>1700000</v>
+        <v>7620000</v>
       </c>
       <c r="P40" s="4">
-        <v>1620000</v>
+        <v>7770000</v>
       </c>
       <c r="Q40" s="4">
-        <v>1700000</v>
+        <v>7480000</v>
       </c>
       <c r="R40" s="4">
-        <v>1770000</v>
+        <v>7480000</v>
       </c>
       <c r="S40" s="4">
-        <v>1770000</v>
+        <v>7480000</v>
       </c>
       <c r="T40" s="4">
-        <v>1770000</v>
+        <v>7480000</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B41" s="4">
-        <v>5160000</v>
+        <v>8760000</v>
       </c>
       <c r="C41" s="4">
-        <v>5160000</v>
+        <v>8760000</v>
       </c>
       <c r="D41" s="4">
-        <v>5160000</v>
+        <v>8760000</v>
       </c>
       <c r="E41" s="4">
-        <v>5160000</v>
+        <v>8760000</v>
       </c>
       <c r="F41" s="4">
-        <v>5160000</v>
+        <v>8760000</v>
       </c>
       <c r="G41" s="4">
-        <v>5160000</v>
+        <v>8760000</v>
       </c>
       <c r="H41" s="4">
-        <v>5160000</v>
+        <v>8760000</v>
       </c>
       <c r="I41" s="4">
-        <v>5160000</v>
+        <v>8760000</v>
       </c>
       <c r="J41" s="4">
-        <v>5160000</v>
+        <v>8760000</v>
       </c>
       <c r="K41" s="4">
-        <v>5160000</v>
+        <v>8760000</v>
       </c>
       <c r="L41" s="4">
-        <v>5160000</v>
+        <v>8760000</v>
       </c>
       <c r="M41" s="4">
-        <v>5160000</v>
+        <v>8760000</v>
       </c>
       <c r="N41" s="4">
-        <v>5210000</v>
+        <v>8760000</v>
       </c>
       <c r="O41" s="4">
-        <v>5310000</v>
+        <v>8760000</v>
       </c>
       <c r="P41" s="4">
-        <v>5360000</v>
+        <v>8760000</v>
       </c>
       <c r="Q41" s="4">
-        <v>5360000</v>
+        <v>8070000</v>
       </c>
       <c r="R41" s="4">
-        <v>5310000</v>
+        <v>7850000</v>
       </c>
       <c r="S41" s="4">
-        <v>5400000</v>
+        <v>7820000</v>
       </c>
       <c r="T41" s="4">
-        <v>5460000</v>
+        <v>7670000</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B42" s="4">
-        <v>2150000</v>
+        <v>9820000</v>
       </c>
       <c r="C42" s="4">
-        <v>2150000</v>
+        <v>9820000</v>
       </c>
       <c r="D42" s="4">
-        <v>2150000</v>
+        <v>9820000</v>
       </c>
       <c r="E42" s="4">
-        <v>2150000</v>
+        <v>9820000</v>
       </c>
       <c r="F42" s="4">
-        <v>2150000</v>
+        <v>9820000</v>
       </c>
       <c r="G42" s="4">
-        <v>2150000</v>
+        <v>9820000</v>
       </c>
       <c r="H42" s="4">
-        <v>2150000</v>
+        <v>9820000</v>
       </c>
       <c r="I42" s="4">
-        <v>2150000</v>
+        <v>9830000</v>
       </c>
       <c r="J42" s="4">
-        <v>2150000</v>
+        <v>12200000</v>
       </c>
       <c r="K42" s="4">
-        <v>1490000</v>
+        <v>12200000</v>
       </c>
       <c r="L42" s="4">
-        <v>1440000</v>
+        <v>14500000</v>
       </c>
       <c r="M42" s="4">
-        <v>1440000</v>
+        <v>13700000</v>
       </c>
       <c r="N42" s="4">
-        <v>1440000</v>
+        <v>14100000</v>
       </c>
       <c r="O42" s="4">
-        <v>1440000</v>
+        <v>14100000</v>
       </c>
       <c r="P42" s="4">
-        <v>1440000</v>
+        <v>14100000</v>
       </c>
       <c r="Q42" s="4">
-        <v>1440000</v>
+        <v>14100000</v>
       </c>
       <c r="R42" s="4">
-        <v>1390000</v>
+        <v>13700000</v>
       </c>
       <c r="S42" s="4">
-        <v>1330000</v>
+        <v>14100000</v>
       </c>
       <c r="T42" s="4">
-        <v>1320000</v>
+        <v>14100000</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B43" s="4">
-        <v>2650000</v>
+        <v>10700000</v>
       </c>
       <c r="C43" s="4">
-        <v>2650000</v>
+        <v>10700000</v>
       </c>
       <c r="D43" s="4">
-        <v>2660000</v>
+        <v>10700000</v>
       </c>
       <c r="E43" s="4">
-        <v>2660000</v>
+        <v>10600000</v>
       </c>
       <c r="F43" s="4">
-        <v>2660000</v>
+        <v>10300000</v>
       </c>
       <c r="G43" s="4">
-        <v>2660000</v>
+        <v>10300000</v>
       </c>
       <c r="H43" s="4">
-        <v>2660000</v>
+        <v>10200000</v>
       </c>
       <c r="I43" s="4">
-        <v>2710000</v>
+        <v>9960000</v>
       </c>
       <c r="J43" s="4">
-        <v>2800000</v>
+        <v>9640000</v>
       </c>
       <c r="K43" s="4">
-        <v>2850000</v>
+        <v>9530000</v>
       </c>
       <c r="L43" s="4">
-        <v>2780000</v>
+        <v>9390000</v>
       </c>
       <c r="M43" s="4">
-        <v>2850000</v>
+        <v>9350000</v>
       </c>
       <c r="N43" s="4">
-        <v>3100000</v>
+        <v>9220000</v>
       </c>
       <c r="O43" s="4">
-        <v>3180000</v>
+        <v>9050000</v>
       </c>
       <c r="P43" s="4">
-        <v>3140000</v>
+        <v>9100000</v>
       </c>
       <c r="Q43" s="4">
-        <v>3340000</v>
+        <v>8360000</v>
       </c>
       <c r="R43" s="4">
-        <v>3340000</v>
+        <v>8020000</v>
       </c>
       <c r="S43" s="4">
-        <v>3340000</v>
+        <v>7870000</v>
       </c>
       <c r="T43" s="4">
-        <v>3340000</v>
+        <v>8210000</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B44" s="4">
-        <v>3640000</v>
+        <v>21600000</v>
       </c>
       <c r="C44" s="4">
-        <v>3640000</v>
+        <v>21400000</v>
       </c>
       <c r="D44" s="4">
-        <v>3640000</v>
+        <v>21400000</v>
       </c>
       <c r="E44" s="4">
-        <v>3640000</v>
+        <v>21400000</v>
       </c>
       <c r="F44" s="4">
-        <v>3640000</v>
+        <v>21500000</v>
       </c>
       <c r="G44" s="4">
-        <v>3640000</v>
+        <v>21400000</v>
       </c>
       <c r="H44" s="4">
-        <v>3640000</v>
+        <v>21400000</v>
       </c>
       <c r="I44" s="4">
-        <v>3640000</v>
+        <v>20600000</v>
       </c>
       <c r="J44" s="4">
-        <v>3740000</v>
+        <v>20600000</v>
       </c>
       <c r="K44" s="4">
-        <v>3740000</v>
+        <v>20600000</v>
       </c>
       <c r="L44" s="4">
-        <v>3740000</v>
+        <v>20600000</v>
       </c>
       <c r="M44" s="4">
-        <v>3740000</v>
+        <v>20600000</v>
       </c>
       <c r="N44" s="4">
-        <v>3740000</v>
+        <v>20700000</v>
       </c>
       <c r="O44" s="4">
-        <v>3740000</v>
+        <v>20600000</v>
       </c>
       <c r="P44" s="4">
-        <v>3740000</v>
+        <v>20700000</v>
       </c>
       <c r="Q44" s="4">
-        <v>3570000</v>
+        <v>20600000</v>
       </c>
       <c r="R44" s="4">
-        <v>3380000</v>
+        <v>20100000</v>
       </c>
       <c r="S44" s="4">
-        <v>3250000</v>
+        <v>19700000</v>
       </c>
       <c r="T44" s="4">
-        <v>3000000</v>
-      </c>
+        <v>19600000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T44">
+    <sortCondition ref="B2:B44"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datos_colonia.xlsx
+++ b/Datos_colonia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Documents\IA\ia_dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\ia_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF373784-40B0-45F0-B320-6B99E9C812EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{978F42C7-E5DF-4C18-97CD-3E6B9CF32AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Loma bonita sur</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>independencia</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -161,9 +164,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +175,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="singleAccounting"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -198,17 +209,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,16 +503,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
       <c r="B1" s="1">
         <v>44075</v>
       </c>
@@ -1799,7 +1814,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="17.25" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1824,7 +1839,7 @@
       <c r="H22" s="2">
         <v>3200000</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="5">
         <v>3210000</v>
       </c>
       <c r="J22" s="2">
@@ -3317,5 +3332,6 @@
     <sortCondition ref="B2:B44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datos_colonia.xlsx
+++ b/Datos_colonia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\ia_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{978F42C7-E5DF-4C18-97CD-3E6B9CF32AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2B7C0AC-E7B2-40DE-8D6C-953461999756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Loma bonita sur</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -501,12 +504,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -1710,13 +1713,13 @@
         <v>2740000</v>
       </c>
       <c r="G20" s="2">
-        <v>280000</v>
+        <v>2800000</v>
       </c>
       <c r="H20" s="2">
-        <v>280000</v>
+        <v>2800000</v>
       </c>
       <c r="I20" s="2">
-        <v>280000</v>
+        <v>2800000</v>
       </c>
       <c r="J20" s="2">
         <v>2800000</v>
@@ -3240,88 +3243,93 @@
         <v>19600000</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
